--- a/news_data/2018_11.xlsx
+++ b/news_data/2018_11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,21 +22,69 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>[아주종목분석] "롯데관광개발 내년 제주도 복합 리조트 완공"</t>
+  </si>
+  <si>
+    <t>전남 진도군, 제주도 ‘사후면세점’에서 농수특산품 판매·문화관광 홍보</t>
+  </si>
+  <si>
+    <t>제주도, 인도네시아에 생태관광 직업훈련 지원</t>
+  </si>
+  <si>
+    <t>제3차 제주도 관광진흥계획, '청정휴양 관광도시' 목표</t>
+  </si>
+  <si>
+    <t>제주도 관광국 컨트롤타워 역할 부실…대행사업·기금비중 줄여야</t>
+  </si>
+  <si>
+    <t>제주도 공무직 채용, 관광지매표원직 경쟁률 46.2대1</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '오키나와 관광박람회' 관광 홍보부스 운영</t>
+  </si>
+  <si>
+    <t>12월 제주도 여행 10선...놓치지 말아야 할 관광명소는?</t>
+  </si>
+  <si>
+    <t>제주도, 말레시아 관광객 유치위해 '감귤따기 체험' 행사 등 활용</t>
+  </si>
+  <si>
+    <t>[제주도는 도박섬?①] 日관광객 3배↑, 韓카지노 10%↓…뒷짐지다 “망할 판”</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 우수관광사업체 5개 분야 대상 공모지정</t>
+  </si>
+  <si>
+    <t>제주도, 관광객들이 '버리고 간' 유실물로 몸살</t>
+  </si>
+  <si>
+    <t>"제주도, 이젠 '바닷속 경치'도 관광자원화한다"</t>
+  </si>
+  <si>
+    <t>원투씨엠-티그, 제주도 관광객에게 공유자전거 사업 한다</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 겨울철 관광객 수요 확보 박차</t>
+  </si>
+  <si>
+    <t>제주도·관광공사, 대만 크루즈 시장 공략 나서</t>
+  </si>
+  <si>
     <t>[전문] 제주도의회 예산안 심사 입장-이경용 문화관광체육위원장</t>
   </si>
   <si>
+    <t>제주도 중문 맛집 '갈치왕', 중문관광단지 갈치요리 전문식당 주목</t>
+  </si>
+  <si>
+    <t>제주도, 관광건설현장 대상 체불임금 해소 합동 지도점검</t>
+  </si>
+  <si>
     <t>김영진 제주도관광협회장, 日 오키나와 방문 교류 협력 추진</t>
   </si>
   <si>
     <t>제주도, 2018년 하반기 우수관광사업체 공모</t>
   </si>
   <si>
-    <t>제주도 중문 맛집 '갈치왕', 중문관광단지 갈치요리 전문식당 주목</t>
-  </si>
-  <si>
-    <t>제주도, 관광건설현장 대상 체불임금 해소 합동 지도점검</t>
-  </si>
-  <si>
     <t>2018 제주도 하반기 우수관광사업체 지정 공모</t>
   </si>
   <si>
@@ -52,34 +100,79 @@
     <t>'대구 김광석 거리부터 제주도 우도까지'…한국관광공사가 조선족에게 추천하...</t>
   </si>
   <si>
-    <t>[전문] 제주도의회 예산안 심사 입장-이경용 문화관광체육위원장 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:29 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 제주도의회 예산안 심사 입장-이경용 문화관광체육위원장 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 [전문] 제주도의회 예산안 심사 입장-이경용 문화관광체육위원장 편집팀 iheadline@hanmail.net 승인 2018.11.22 09:53 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 문화관광분야의 선심성·관행·퍼주기 예산 철저히 검증하겠다!!내년도 예산편성의 기조가‘미래·청정제주’입니다. 제주의 미래투자를 위한 예산편성 기조에 맞게 문화관광예산이 제대로 편성되었는지 선심성, 관행, 퍼주기 예산여부를 철저히 검증하겠습니다. 도 예산이 전년도보다 6.4% 증가된 5조 3,524억원을 넘어서고 있는 가운데, 문화예술 예산비중의 3%대 유지, 관광산업의 질적성장 강화를 위해 관광진흥기금 예산을 집중 편성하고 있습니다. 도내 곳곳 문화인프라 확충에 문화예산이 집중된 만큼 도민들의 생활문화 활성화와 읍면동 문화격차를 해소하여 제주형 문화분권의 생태계가 조성될 수 있는 지 꼼꼼히 들여다 볼 것입니다. 특히 관광분야 예산이 관광진흥기금으로 집중 편성되고 있는 만큼 기금 조성과 지출이 낭비됨이 없는지 살펴보겠습니다. 제주관광의 침체위기 극복 위한 관광사업체의 회생, 제주관광 질적성장의 내실화는 물론 관광유관기관 사업예산의 중복성 여부도 따져 기관 몸집 불리기가 아닌 시너지 효과를 창출하고 자립화를 강화할 수 있는 방향으로 예산심의가 진행될 것입니다. 문화관광예산의 선심성․낭비성 경비, 집행률 저조사업의 편성 관행, 효과검증 없는 퍼주기 예산 여부를 꼼꼼히 따져 지방재정의 건전성과 효율성 확보에 중점을 두고 보다 철저하고 엄격하게 예산심의를 해 나가겠습니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>김영진 제주도관광협회장, 日 오키나와 방문 교류 협력 추진 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 김영진 제주도관광협회장, 日 오키나와 방문 교류 협력 추진 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 김영진 제주도관광협회장, 日 오키나와 방문 교류 협력 추진 문유미 기자 승인 2018.11.20 16:06 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 김영진 제주특별자치도관광협회장은 오는 22일부터 25일까지 일본 오키나와를 방문해 오키나와관광컨벤션뷰로(회장 타이라 쵸우케이)와 류큐지역 관광객 유치 활성화를 위한 협력 비즈니스 마케팅을 추진한다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도, 2018년 하반기 우수관광사업체 공모 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:21 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주 강한 비 ‘시간당 20mm’ 내외…기온 큰 폭으로 뚝↓ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 2018년 하반기 우수관광사업체 공모 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도, 2018년 하반기 우수관광사업체 공모 기자명 이승록 기자					(leerevol@naver.com) 입력 2018.11.05 15:01 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도가 2018년 하반기 우수관광사업체를 공모한다. 제주도는 관광사업체의 품질향상과 서비스 개선 등 우수한 관광사업체의 경쟁력을 강화시켜 관광객들의 만족도를 향상시킬 우수관광사업체를 12일까지 모집한다고 5일 밝혔다.공모대상은 영업신고(리모델링) 후 1년 이상 경과한 제주도에 본점을 둔 사업체로 관광지, 교통, 숙박업, 여행업, 음식업 5개 분야를 대상으로 하며, 이전에 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청해 재지정을 받아야 한다.우수관광사업체 선정은 공모에 신청한 관광사업체의 신청서류 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거치게 되며, 지정 기간은 2년(2019년 1월1일~ 2020년 12월31일)이다.주요 평가 항목으로는 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등 분야별 평가표에 의해 종합적으로 평가하며, 종합점수가 기준 점수(90점) 충족된 경우 평정위원회 심의를 거쳐 최종 선정한다.우수관광사업체로 지정되면 우수관광사업체 지정서 및 인증패가 수여되고, 도 관광정보시스템 및 유관기관 홈페이지 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어지며, 홍보지원금 70만원이 지급된다.또한 우수관광사업체 고객만족도 조사 등 전문기관의 중간  점검을 통해 불편사항과 불만족 서비스 등에 대한 업체 컨설팅 및 현장교육 등의 지원도 받게 된다.우수관광사업체로 지정을 희망하는 사업체는 10월 29일부터 제주도 홈페이지(www.jeju.go.kr)  '입법/공고/고시'게시판에서 우수관광사업체 지정신청서 등을 다운로드 받아 제주도관광협회(☎064-741-8744)에 신청하면 되고, 자세한 공모 내용은 제주도 홈페이지에서 확인할 수 있다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 중문 맛집 ‘갈치왕’, 중문관광단지 갈치요리 전문식당 주목 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문 맛집 ‘갈치왕’, 중문관광단지 갈치요리 전문식당 주목 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 제주도 중문 맛집 ‘갈치왕’, 중문관광단지 갈치요리 전문식당 주목 기자명 이수호 기자 승인 2018.11.09 16:57 댓글 0 조회수 : 7076 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 답답한 도심을 벗어나 제주도의 바다와 아름다운 경관을 보기 위해 여행객들이 붐비고 있다. 겨울의 문턱 앞에 놓인 제주도는 쾌청한 바람, 올레길, 둘레길, 막바지 단풍 등 여러 가지 매력적인 요소를 가지고 국내외 여행객들에게 매력을 선보이고 있다. 제주도의 많은 관광명소 중 중문관광단지는 단연 으뜸이다. 이곳은 바다 주변에 인접하고 있어 프리미엄급 숙소가 많이 위치하고 있으며, 맛집과 카페들이 즐비해 제주도를 여행하는 여행객들이 필수적으로 방문하는 곳이다. 또한 많은 관광객들이 중문을 찾는 이유는 독특하고 맛있는 제주도만의 신선한 해물요리가 가득하기 때문이다. 그 중 제주 서귀포 상예동에 위치한 ‘제주 갈치왕’은 100% 제주도산 갈치를 사용하는 갈치요리 전문식당으로, 제주 현지인들에게도 가장 인기 있는 갈치구이, 갈치조림 맛집이다. 중문에 위치한 여러 호텔에서 차로 5분 거리에 위치하고 있어, 접근이 매우 쉬우며, 최대 60명이 동시에 식사가 가능한 식당이다. ‘갈치왕’은 신선한 식재료와 특제 양념을 어우러지게 요리하고 있으며, 저렴한 세트가 구성되어 있어, “여행객들에게 맛있는 갈치를 부담 없이 제공하기위해 최선을 다한다.”고 전했다. 또한 “갈치구이 모둠세트는 2인 75,000원, 3인 85,000원, 4인 95,000원이며, 주문 시 갈치회, 전복버터구이, 옥돔구이, 고등어구이, 전복뚝배기, 갈치조림 등 “어디서도 맛볼 수 없는 메뉴를 동시에 제공한다.”며 덧붙였다. 앞에도 이야기 한 것과 같이 ‘갈치왕’의 장점은 신선한 제주산 갈치이다. 식당에서 사용되는 모든 갈치는 당일 한림항 서귀포 항에서 직접 경매한 생선을 사용한다. 아울러 제주 중문 맛집 갈치왕은 제주 대표맛집, 제주 중문맛집이라는 타이틀에 유지하기 위해 최선을 다해 노력하겠다고 밝혔다. 한편 제주 갈치왕은 매일 오전 10시 30분부터 오후 9시까지 연중무휴이다. 단체 예약 시 사전예약이 필수이다. 또한 음주사고 예방을 위해 중문 관광단지 내 숙소까지 이동서비스도 제공한다. ‘갈치왕’은 제주 서귀포시 상예동 1719-1에 위치하고 있으며, 메뉴와 단체예약 문의는 대표전화를 통해 확인이 가능하다. 이수호 기자 goodnights1@busaneconomy.com 이수호 기자 goodnights1@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 부산 사상구의회 ‘골목상권 공동체 육성 및 활성화 지원’ 조례 제정 더불어민주당 부산시당, “경남이 걷어찬 부울경 메가시티, 대통령실이 정리해야” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 선배가 들려주는 창업… 말랑하니의 ‘성장 스토리’ 르노코리아차, SM6 필 트림 새롭게 출시 부산 치의학 인재 양성 지산학 협력… 30호 브랜치 ㈜디오에 개소 XM3, 부산공장 생산 20만대 돌파 인기뉴스 1 HJ중공업, 거제공장 개장…일감 증가에 조선부문 투자확대 2 [인터뷰] “인기절정 신혼여행지 몰디브, 사전예약 통해 알뜰하고 지혜롭게” 3 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 4 [인터뷰] “중소기업과 소상공인을 위한 서비스업의 디지털전환(DX)이 비즈니스 모델” 5 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 6 국립해양박물관 소장 ‘감로도’, 부산시 문화재 지정 7 BNK캐피탈 “AI챗봇으로 고객편의·업무효율 제고” 8 캠코, 2384억원 규모 압류재산 공매…부산 32건 포함 포토뉴스 부산인터넷방송국, 2022 우수벤처기업 선정 올해 하반기 부산시 산하 공공기관 채용 경쟁률 44대 1 코나아이, 동백택시 서포터즈들과 ‘음주운전’ 근절 캠페인 펼쳐 [윤재우의 비대면 선거의 제왕 #33] 비대면은 빨리 변하지만 오래 견디는 사람이 승리… "장기전으로 봐야" 최신뉴스 부산인터넷방송국, 2022 우수벤처기업 선정 올해 하반기 부산시 산하 공공기관 채용 경쟁률 44대 1 코나아이, 동백택시 서포터즈들과 ‘음주운전’ 근절 캠페인 펼쳐 [윤재우의 비대면 선거의 제왕 #33] 비대면은 빨리 변하지만 오래 견디는 사람이 승리… "장기전으로 봐야" 제27회 BIFF D-2… 영화인·시네필·산업까지 축제의 장으로 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도, 관광건설현장 대상 체불임금 해소 합동 지도점검 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 [급등주]에이디테크놀로지 주가 상승, 반도체 대전서 ADP 로드맵 선보인다 [급등주]칩스앤미디어 주가 21% 상승, 모빌아이 IPO 기대감 [급등주]오토앤 주가, 현대글로비스 美 중고차 시업 추진에 23% 강세 [급등주] 일진홀딩스 상승, 롯데케미칼의 일진머티리얼즈 인수 영향 [급등주] SK네트웍스우 상승, 자사주 취득 공시 영향받나 [급등주]오픈엣지테크놀로지 주가, 상장 후 부진 만회하나 '22% 급등' [급등주] KR모터스 상승, 서울시 대기질 개선 대책 발표 [급등주]라닉스 주가 29% 상한가, 자율주행 관련주 각광 [특징주] 국전약품 주가 하락 '샤페론 수혜 끝났나' 2022-10-04 10:14 (화) [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 삼척시 인근서 산불발생...헬기 3대 투입 진화 대구시 동구 율암동 섬유공장에서 화재발생 인천 가정동 빌라서 불…"40대 남성 중상" 횡성군 비닐하우스서 화재…4명 부상 강원 양양 산불발생... 36분만에 진화완료 군산해경, 해상에 추락한 낚시객 등 구조 해경, 야간 갯바위 고립 낚시객 구조 원주서 택시·승용차 충돌...2명 부상 [속보] 경기 버스 노사 협상 타결 파업 철회...버스 정상운행 춘천 석사동 사무실 화재…인명피해 없어 수원 장안동 주택서 불…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 관광건설현장 대상 체불임금 해소 합동 지도점검 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 관광건설현장 대상 체불임금 해소 합동 지도점검 기자명 고병수 기자 입력 2018.11.08 13:43 수정 2018.11.08 13:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 7일 애월 스마트테마파크 건설현장을 대상으로 체불이 우려됨에 따라 건설현장 유관기관 합동 지도·점검을 긴급 실시했다고 밝혔다.이번에 실시한 체불 우려 건설현장 합동 지도·점검은 지난 10월 28일 오전 10시 도청 당직실로 해당 신축 공사장 건설노동자가 체불임금 발생(약 50명, 2억원 ) 민원이 신청됨에 따라 이뤄졌다.올해 6월 19일에 협약한 '체불임금 해소대책 추진 업무협력 협약'에 따라 유관기관 및 관계부서 공무원을 긴급히 소집해 시행하게 됐다는 것. 체불임금 및 건설공사 유관 부서인 道 경제정책과(노동정책팀장 외 1명), 투자유치과, 건설과(건설진흥팀장 외 1명)와 광주지방고용노동청 제주근로개선지도센터(근로감독관 1명) 등 6명이 참여했다.체불 우려 건설현장 합동 지도·점검에는 건설노동자 체불임금 발생 실태 및 하도급 관련 부조리에 대해 중점 지도·점검을 실시했다. 점검결과 해당 사업장은 내년 1월 준공 예정으로 체불임금은 노동자와 약속한 날 자에 지급하도록 지도했고 이후 추적 관리를 통해 지급여부를 확인할 계획이다.또한 앞으로도 체불임금 유관기관이 함께하는 체불 우려 건설현장 합동 지도·점검을 통해 제주도내 체불임금 예방 및 해소를 추진해 '노동자가 살기 좋은 행복도시 제주'를 조성해나갈 계획이다.최명동 경제정책과장은 "이번 체불 우려 건설현장 합동 지도·점검을 시작으로 '체불임금 해소대책 추진 업무협력 협약' 유관기관과의 긴밀한 공조체계를 구축 및 지속 유지해 체불임금 예방 및 해소에 적극 노력하겠다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 이효리 이상순 임신 소식 언제 '불타오르지 않아' 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 김종민♥신지 결혼설, 축하 꽃다발 선물 누가? '특종세상' 배우 김태형, 10년 전 아들 잃고 충격...나이·근황은? 김종민♥신지 결혼설 해명 후 물오른 미모 '소멸될 듯' 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 제니♥뷔 열애설, 화장실 반신욕 사진까지 유출? 주요기사 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 요양병원 접촉면회 4일부터 가능 '입소자 외박·외출도' 최신뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 군산시, 내년 복지대상자 상하수도 요금 감면 확대 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 포토뉴스 제천시의회 의회사무국, 첫 월례회의 개최 국민 10명 중 7명은 정부 물가안정대책 효과 체감 못해 [오늘날씨] 서울13도 "기온뚝" 가을비 언제그치나? [급등주]동아화성 주가 17% 상승, 빌게이츠 메탄올 연료전지 개발 지원 인기뉴스 1 [단독] 세종시, 태권도사범이 여중생 상대 '좋아한다'며 수차례 성관계 2 안철수, 당 대표가 돼야 하는 이유? 3 유럽 증시, 개장 직후 폭락···FTSE 100 1.6%· DAX 1.3% '뚝' 4 사천시 '항공우주청' 조기 설립 광폭행보 5 안양 호계동 아파트 공사장서 불…인명피해 없어 6 [속보] 영동고속도로 덕평휴게소 출구 옆 차량화재 7 러시아 우크라이나 전쟁···美 "유럽 주둔 미군 우발 상황에 대비" 8 우크라이나 러시아 전쟁, 파괴된 탱크 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>2018 제주도 하반기 우수관광사업체 지정 공모 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:29 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 2018 제주도 하반기 우수관광사업체 지정 공모 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 2018 제주도 하반기 우수관광사업체 지정 공모 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2018.11.05 11:17 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 오는 12일까지 관광사업체의 품질향상과 서비스 개선 등 우수한 관광사업체의 경쟁력을 강화시켜 관광객들의 만족도를 향상시킬 우수관광사업체를 모집한다.공모대상은 영업신고(리모델링) 후 1년 이상 경과한 제주특별자치도에 본점을 둔 사업체로 관광지, 교통, 숙박업, 여행업, 음식업 5개 분야이며, 이전에 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청해 재지정을 받아야 한다.우수관광사업체 선정은 공모에 신청한 관광사업체의 신청서류 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거치게 되며, 지정 기간은 내년 1월1일부터 2020년12월31일까지 2년이다.주요 평가 항목으로는 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등 분야별 평가표에 의해 종합적으로 평가하며, 종합점수가 기준 점수(90점) 충족된 경우 평정위원회 심의를 거쳐 최종 선정한다.우수관광사업체로 지정되면 우수관광사업체 지정서 및 인증패가 수여되고, 제주도 관광정보시스템 및 유관기관 홈페이지 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어지며, 홍보지원금 70만원이 지급된다.또 우수관광사업체 고객만족도 조사 등 전문기관의 중간 점검을 통해 불편사항과 불만족 서비스 등에 대한 업체 컨설팅 및 현장교육 등의 지원도 받게 된다.우수관광사업체로 지정을 희망하는 사업체는 10월 29일부터 제주특별자치도 홈페이지(www.jeju.go.kr) '입법.공고.고시"' 게시판에서 우수관광사업체 지정신청서 등을 다운로드 받아 제주특별자치도 관광협회(064-741-8744)에 신청하면 되고, 자세한 공모 내용은 제주특별자치도 홈페이지에서 확인할 수 있다.한편 제주도 우수관광사업체는 관광지 41곳, 교통 5곳, 숙박 26곳, 여행 9곳, 음식 18곳 총 99곳이 지정돼 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 참으로 무식한 시민단체라고 할 수 밖에... 공장도 없애야 하고 자동차도 다 없애자고 주장하고. 제주도행 비행기도 운항 중단해야 한다고 주장하는 거랑 뭐가 다른지... 누가 저렇게 하라고 시민단체에게 지시하는 사람이 있나요. 2 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 3 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 4 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 5 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 6 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 7 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 8 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 9 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 10 축하합니다. 대단하십니다. 부럽습니다~~~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
-  </si>
-  <si>
-    <t>제주도, 2018년 하반기 우수관광사업체 지정 공모 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-04 (화) 08:29 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 2018년 하반기 우수관광사업체 지정 공모 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도, 2018년 하반기 우수관광사업체 지정 공모 기자명 양경익 기자 입력 2018.11.05 11:18 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 관광사업체의 경쟁력 강화와 관광객들의 만족도 향상을 위해 우수관광사업체를 오는 12일까지 모집한다고 5일 밝혔다.공모대상은 영업신고 후 1년 이상 경과하고 제주도에 본점을 둔 사업체로 관광지, 교통, 숙박업, 여행업, 음식업 등 5개 분야다.이전 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청을 통해 재지정을 받아야 한다.이에 따라 도는 공모에 신청한 관광사업체의 신청서류 등 자격요건 심사 후 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거쳐 우수관광사업체를 선정할 예정이다.주요 평가 항목으로는 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등이며 종합점수가 기준 점수(90점)를 충족한 경우 평정위원회 심의를 거쳐 최종 선정한다.우수관광사업체로 지정되면 우수관광사업체 지정서 및 인증패가 수여되며 도 관광정보시스템 및 유관기관 홈페이지 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어진다.또한 홍보 지원금 70만원도 지급되며 고객 불편사항과 불만족 서비스 등에 대한 업체 컨설팅 및 현장교육 등의 지원도 받게 된다.우수관광사업체 지정을 희망하는 사업체는 제주도 홈페이지(www.jeju.go.kr) 입법·공고·고시 게시판에서 지정신청서 등을 내려 받아 제주도 관광협회(064-741-8744)로 신청하면 된다.자세한 사항은 제주도 홈페이지에서 확인할 수 있다. 양경익 기자 양경익 기자 yki@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의 운세 10월4일 (음력9월 9일) 2022년 미디어 콘테스트 부문별 최우수상 [무공침] "안전산행 위해 예방수칙 준수" [사설] 低임금 제주경제 언제까지 놔둘건가 [사설] 고령화 속도가 보내는 신호를 읽어라 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 20년 이상 아파트 33곳 '재건축' 계획 제시 2 제주 국악인들 전국대회 대상 쾌거 3 폐현수막 의상 '눈길'..."제주 탐라문화제 새바람 기대" 4 환경과 문화가 만나면, 푸르게 더 푸르게 5 저금리 갈아타기 제주 소상공인 '사각' 6 한라산 백록담 60대 응급환자...헬기 이송 7 제주도선수단 제103회 전국체전 '출전'…"메달 68개 이상 목표" 8 [시론담론]인사와 임기, 그리고 권력 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도의회 '과잉관광' 베네치아와 손 잡는다 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도의회 '과잉관광' 베네치아와 손 잡는다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 도의회 제주도의회 '과잉관광' 베네치아와 손 잡는다 홍수영 기자 승인 2018.11.11 16:29 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도의회가 이탈리아 베네치아와 ‘오버투어리즘’으로 인한 문제점 해결방안 모색 필요성에 뜻을 모으고 우호협력을 체결하기로 했다. 제주도의회는 지난 9일 이탈리아 베네치아·무라노·부라노 시의회(베네치아 시의회)에서 김태석 의장과 지오바니 안드레아 마티니(Giovanni Andrea Martini) 베네치아 시의회 의장 등이 참석한 가운데 내년 우호협력 체결 준비를 위한 양해각서를 교환했다고 11일 밝혔다. 이 자리에서 김태석 의장은 “관광산업이 중심이 되는 양 지역의 관광객과 지역주민이 공존할 수 있는 과제를 해결하기 위해 함께 노력하자”고 제안했다. 이에 지오바니 의장도 “오버투어리즘으로 인해 베네치아를 찾는 관광객과 지역주민 모두 불편을 겪고 있다”며 제주도의회 제안에 동참 의사를 밝혔다. 이어 김 의장은 베네치아 지역주민과의 간담회에서 오버투어리즘 문제에 대한 공감대를 형성하고 “관광객 수용력에 대한 공동연구가 필요하다”고 말했다. 홍수영 기자  gwin1@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 홍수영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>제주도·제주관광공사 ‘섬 관광정책’ 포럼 특별기획전 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:30 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도·제주관광공사 ‘섬 관광정책’ 포럼 특별기획전 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도·제주관광공사 ‘섬 관광정책’ 포럼 특별기획전 개최 문유미 기자 승인 2018.11.07 19:12 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 오는 12~21일 한국관광공사 서울센터서 제주도와 제주관광공사가 섬 관광정책(ITOP) 포럼 특별기획전을 개최한다. 제주특별자치도와 제주관광공사(사장 박홍배)는 오는 12일부터 21일까지 한국관광공사 서울센터에서 ‘세상에서 가장 아름다운 섬 이야기’를 주제로 섬 관광정책(ITOP) 포럼 특별기획전을 개최한다고 7일 밝혔다. 이번 전시회에는 제주·오키나와·스리랑카 남부주·잔지바르·푸켓·페낭 등 6개 섬 지역이 참여해 도시 간 문화·예술·자연을 잇는 사진과 물품 등을 전시할 예정이다. 이와 함께 각 지역 식문화 체험을 위한 쿠킹클래스와 문화행사 등 다채로운 프로그램이 마련된다. 전시 개회식은 오는 12일 오후 4시에 열리며, 지역 문화 공연과 전시 도슨트 해설, 제주메밀 다과 시식 등이 진행될 예정이다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 8김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 94일부터 요양시설 접촉면회 재허용 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>‘대구 김광석 거리부터 제주도 우도까지’…한국관광공사가 조선족에게 추천하는 명소는? - 이정범 기자 - 톱스타뉴스 × 전체기사 엔터 전체 가요 방송 영화 셀럽 문화/예술 사회 전체 사건사고 충격사건 사건일지 주요일정 코로나19 환경 국제 전체 해외연예 분쟁 해외토픽 코인 증시 바이오 정치 전체 여당근황 야당근황 국방 북한 외교 연예가소식 전체 가요 방송 영화 경제 전체 기업 증시-코인-복권 부동산 코인 산업 전체 증시 바이오 문화 전체 스타SNS근황 방송정보 생활정보 가상화폐 정치인SNS 커뮤니티 바이오-헬스 이슈영상 라이프 전체 맛집-레시피 뷰티 스포츠 과학/IT 패션 전체 서울패션위크 인사/동정/부고 전체 인사 부고 동정 포토DB 뉴스 머니 전체 퀴즈 보도자료 전체 연예 경제 사회 스포츠 뉴시스 연합뉴스 전체 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 로고 UPDATED. 2022-10-04 10:17 (화) 인터넷신문위원회 윤리강령을 준수합니다 8월 27일 독자추천종합순위 1위 이찬원, 2위 영탁에 3,502표 앞서 가요 방송 영화 셀럽 인터뷰 현장리포트 무비포커스 기획 HD포토 HD동영상 F레터 이슈 리부트 이슈종합 공식입장 로그인 검색버튼 기사검색 검색 1[최고의앨범] 26일 하루 득표량 순위는 영탁(22.9%)·장민호(15.0%)·이승윤·송가인·김기태·김희재·갓세븐 뱀뱀·양준일·박서진·이찬원 순 2[빅데이터가수브랜드 랭킹] 영탁 77회째 1위(2관왕), 송가인·이찬원·이승윤·장민호 TOP5…김기태·김희재·임영웅·트와이스 나연·방탄소년단 지민 뒤이어(39주차) 3[최고의앨범] 25일 하루 득표량 순위는 영탁(20.6%)·장민호(13.0%)·이승윤·송가인·김기태·양준일·김희재·갓세븐 뱀뱀·박서진·이찬원 순 4[브랜드파워] 26일 하루 득표량 순위는 영탁(25.5%)·김기태(24.9%)·이승윤·장민호·송가인·진해성·김희재·김태연·박서진·이찬원 순 5[최고의앨범] 27일 하루 득표량 순위는 영탁(21.6%)·장민호(17.9%)·이승윤·김기태·송가인·김희재·박서진·양준일·갓세븐 뱀뱀·박창근 순 6'따뜻한 국민형아' 영탁, '편스토랑' 깜짝 영상편지…"우리 사랑하는 윤성이 잘 다녀오라고 형이 응원 메시지 보낸다" 7[댓글 순위] 영탁 198회째 1위, 김기태·이찬원·강혜연·김희재 TOP5…방탄소년단 지민·진해성·전유진·박창근·방탄소년단 진 뒤이어 8[브랜드파워] 10월 브랜드파워 투표 시작…현재순위는 영탁(26.0%)·김기태(16.2%)·이승윤·양준일·장민호·진해성·송가인·박창근·김희재·박서진 순 9[최고의앨범] 28일 하루 득표량 순위는 영탁(21.2%)·이승윤(19.6%)·장민호·김기태·송가인·갓세븐 뱀뱀·김희재·박서진·양준일·박창근 순 10영탁, 팬모임 '하우탁' 포항 침수 세대 도배, 장판 성금 기부…'선한 영향력 전해' 가요 방송 영화 셀럽 현장리포트 스타포커스 무비포커스 인터뷰 HD포토 HD동영상 시상식 쇼케이스 이슈종합 공식입장 단독취재 기획 이슈 리부트 스타화보 스타출근길 엔터테인먼트 스포츠 전체기사 정치 사회 경제 국제 콘텐츠 구매 문의 기사제보 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 닫기 [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [TOP이슈] “결단코 안 했다”…박유천, 싸늘한 반응 속 복귀 [TOP이슈] ‘은퇴 번복’ 박유천, 영화 ‘악에 바쳐’로 복귀…10월 개봉 ‘대구 김광석 거리부터 제주도 우도까지’…한국관광공사가 조선족에게 추천하는 명소는? 이정범 기자 승인 2018.11.05 00:06 댓글 제보하기 반론요청 이 기사를 공유합니다 × 한국관광공사 선양지사는 과거 현지매체인 요녕신문과 공동으로 대한민국의 자연풍경과 인문적 매력을 조선족들에게 널리 알리기 위해 ‘조선족 관광객이 꼭 가봐야 할 한국 지방관광 10선(選)’ 프로모션을 펼쳤다. 관광공사 선양지사는 각계 조선족 전문가와 함께 지방관광 10선으로 부산 감천문화마을, 대구 근대골목 및 대구 김광석 거리, 강원도 설악산, 강릉 커피거리·경포대, 경기도 파주 비무장지대(DMZ)를 선정했다. 청북도 단양팔경, 경상남도 진주성, 전라북도 전주한옥마을, 전라남도 여수 오동도 및 엑스포해양공원, 제주도 우도가 지방관광 10선에 포함됐다. 조선족 관광객이 꼭 가봐야 할 한국 지방관광 10선 / 한국관광공사 선양지사는 이들 10개 지방 관광지의 특성과 위치, 연락처 등을 소개한 관광수첩을 5천부 만들어 중국 동북3성(랴오닝·지린·헤이룽장성)의 조선족 사회를 중심으로 배포했다. 김용재 관광공사 선양지사장은 “지방관광과 테마관광을 활성화하는 추세에서 한국문화·역사를 풍부히 담은 지방 대표 관광지를 선정해 널리 알리고 휴가, 가족방문 등의 기회를 이용해 조선족들이 국내 곳곳을 방문하는 계기를 제공코자 한다”고 말했다.이정범 기자 reporter@topstarnews.co.kr &amp;lt뉴스를 무단으로 유튜브 영상을 제작하는 것을 금지합니다. 발견 즉시 민형사상 제소합니다.&amp;gt Tag #관광공사 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 카카오톡 URL복사 이 기사를 공유합니다 × 이 기사를 추천합니다. 0 모두에게 알리고 싶은 뉴스라면 ? ‘이 기사를 추천합니다’ 버튼을 눌러주세요.추천을 많이 받은 기사는 ‘독자 추천 뉴스’에 노출됩니다. 전체 기사 보기 기사를 추천하면 투표권을 받을 수 있습니다. If you recommend an article, you can get a voting ticket. PC페이지에서 추천하면 투표권을 2개 지급합니다. If you recommend an article on the PC page, you will receive two voting tickets. 모바일 모드로 보기 Go to the Mobile page. &amp;lt저작권자 © 톱스타뉴스 무단전재 및 재배포 금지&amp;gt 2018/11/05 00:06 송고&amp;nbsp&amp;nbsp|&amp;nbsp&amp;nbspreporter@topstarnews.co.kr 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 [F레터] 팬들의 사연을 보도합니다. 스타서베이 공지 보러 가기 [공지]독자추천·댓글순위·리트윗순위 독자추천뉴스 ㅣ 댓글많은뉴스 ㅣ 트위터 경력기자 ㅣ 신입기자 ㅣ 신문사소개 윤리강령 보도/편집 규약 불편신고 청소년보호정책 이메일무단수집거부 기사제보 광고문의 콘텐츠제휴문의 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 취재본부 : 02-3443-4662, 제보메일 reporter@topstarnews.co.kr 신문등록번호 : 서울 아 01403, 신문등록일 : 2010-11-09 발행소 : 서울특별시 강남구 학동로30길 14 이세빌딩 2층 추천기사 ‘강다니엘부터 라이관린까지’…워너원, ‘2018 제주 한류페스티벌’ 빛내 ‘알토란’ 김하진 요리연구가, 오독한 밥도둑 ‘무말랭이무침-묵말랭이볶음’ 레시피 공개 ‘SBS 스페셜’ 기억법 전문가 고혜정·정계원·조신영은 누구? “기억력은 ‘내’가 아니라 ‘뇌’가!” ‘알토란’ 임성근 조리기능장, ‘찜닭’ 30분 완성 ‘맛집보다 더 맛있는’ 레시피 공개 ‘SBS 스페셜’ 기억법의 비밀 편, 유재환이 살찐 이유는 건망증 때문? “먹은 거 까먹고 또 먹어” 해외토픽 러시아와 전쟁중인 우크라이나 키이우 상공에 UFO 출현 인도 여성, 15개월 아이 구하려 맨손으로 호랑이와 사투 미국 미술전서 인공지능이 그린 그림이 1위…"이것도 예술인가" 논란 NASA 블랙홀 소리 공개…'지옥의 소리' '우주 호러' 독일서 여성 2명, 총리 앞 '상의 탈의' 시위…"러시아 가스 금수하라. 푸틴에게 돈을 주지 마라" 2배로 커진 칠레 미스터리 싱크홀…지름 50m 깊이 200m 미국 구치소에서 "男죄수들 女구치소 습격·집단 성폭행…1천달러에 교도관 매수" 미국 메가밀리언 복권 29회 동안 1등 없어, 다음 1등은 1조3천억원…복권 구매 줄이어 중국, 생방송 인플루언서 불붙여 살해한 전 남편 사형 집행 "빅토리아 시크릿과 성범죄자 엡스타인 추악한 연결 고리나와" F레터 F레터 공지 [F레터] 다산의 숨결이 느껴지는 그곳에 진해성 가수가 간다 [F레터] 김기태의 노래와 함께한 10개월…겨울 같은 마음에 봄날을 선물한 노래 [F레터] 해성사랑의 카리스마 진해성…메말라있는 감성이 살아날때 그의 향기가 펴진다 [F레터] 진해성 가수를 향한 그리움 가득한 노르웨이에서 온 편지 [F레터] 진해에 진해의 별이 떳어요…″합!합!합! 바람고개 진해성″ 독자 추천 뉴스 1 1280 [최고의앨범] 26일 하루 득표량 순위는 영탁(22.9%)·장민호(15.0%)·이승윤·송가인·김기태·김희재·갓세븐 뱀뱀·양준일·박서진·이찬원 순 2 1270 [빅데이터가수브랜드 랭킹] 영탁 77회째 1위(2관왕), 송가인·이찬원·이승윤·장민호 TOP5…김기태·김희재·임영웅·트와이스 나연·방탄소년단 지민 뒤이어(39주차) 3 1219 [최고의앨범] 25일 하루 득표량 순위는 영탁(20.6%)·장민호(13.0%)·이승윤·송가인·김기태·양준일·김희재·갓세븐 뱀뱀·박서진·이찬원 순 4 1205 [브랜드파워] 26일 하루 득표량 순위는 영탁(25.5%)·김기태(24.9%)·이승윤·장민호·송가인·진해성·김희재·김태연·박서진·이찬원 순 5 1185 [최고의앨범] 27일 하루 득표량 순위는 영탁(21.6%)·장민호(17.9%)·이승윤·김기태·송가인·김희재·박서진·양준일·갓세븐 뱀뱀·박창근 순 댓글많은뉴스 1 350 영탁, '신랑수업' 탁멍을 불러오는 나 홀로 촌캉스 즐기는 '귀여운 시골 삼촌'…'하와이 뺨치는 대야 물놀이 유행 조짐' 2 300 '또 우승' 김기태, "하고 싶은 이야기가 너무 많아" 팬들에게 꺼낸 진심 3 288 '따뜻한 국민형아' 영탁, '편스토랑' 깜짝 영상편지…"우리 사랑하는 윤성이 잘 다녀오라고 형이 응원 메시지 보낸다" 4 286 [스타포커스] 가수 김기태, 오랜 무명 생활 끝→‘싱어게인2’로 맞이한 전성기 5 257 "이 맛이 영탁 라거다" 영탁, '신랑수업' 촌캉스 풀빌라 룸서비스 즐기는 살림 9단의 영탁의 맛 Instagram에서 이 게시물 보기 톱스타뉴스(@topstarnews)님의 공유 게시물 이슈 1 "와이프-엄마도 몰랐나" 돈스파이크, 과거 대마로 징역형 '대중 기만 논란' 2 [TOP이슈] ‘마약 혐의’ 돈스파이크, 와이프→여동생-어머니까지…가족 공개 어쩌나 3 [TOP이슈] '마약 투약 혐의' 이상보, 무혐의 처분…"처방내역 분석" 4 배우 박민영, 강씨와 결별→친언니 사외이사 사임 발표…‘이미지 타격’ 불가피 5 "이미 이별" 박민영, 강종현과 열애설 이틀만에 '손절' 이유 6 이정재-정우성 측 '박민영 열애설' 재력가 회사 투자? "전혀 관련없다" 7 [2년 전 오늘] 블락비 박경, '학폭' 논란 인정→군 입대…최근 근황은? 8 [TOP이슈] ‘필로폰 혐의’ 돈스파이크, ‘오은영의 금쪽상담소’ 출연 이유도 의심 9 의문은 계속…배우 박민영, 강종현과 열애설 ‘이틀째 침묵’ 10 배우 박민영 측, “재력가와 열애? 확인 중” 11 [TOP이슈] 탑-박유천-정일훈 등, 연예계 마약 파문 계속 12 [TOP이슈] 용준형-로이킴, '정준영 단톡방' 파문→나란히 컴백…사건 다시 보니? 13 남궁민♥진아름, 10월 결혼한다…나이차-애칭 '재조명' 14 "와이프 어쩌나" 돈스파이크, 호텔서 남녀 필로폰 파티…방송가 '손절' [TOP이슈] 15 [TOP이슈] 배우 김선호, '사생활 논란' 이후 연극 복귀→12월 팬미팅 이슈영상 1 코로나 봉쇄로 외출 못하게 대문까지 용접한 중국, 한달 지나서 공개된 용접 영상 집가다 방역 요원에게 봉변까지 이슈종합 [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '연습생 출신' 한서희, 3번째 마약 혐의도 모르쇠…선고 당일 항소 [이슈종합] ‘음주운전’ 배우 곽도원, 차기작 빨간불…‘소방관’ ‘빌런즈’ 어쩌나 [이슈종합] '프듀101' 출신 정중지 여동생, 고인 인스타 계정 공개…생전 모습 눈길 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] 유승준, 비자 재소송 2심 첫 재판…法 "재외동포인가?" 지적 ‘지숙 남편’ 이두희 측, 메타콩즈 임금 미지급 논란→법적 대응 검토 [이슈종합] [이슈종합] 가수 양준일, '엉터리 라벨' 선캡…결국 행정조치 받는다 [이슈종합] ‘살림남’ 제작진, “포경 수술? 자발적 의사결정…제작진 개입 없어” 해명문 기획 [TOP초점] 방탄소년단(BTS) 부산 콘서트, 10만명 운집 괜찮을까 [TOP초점] 먹방으로 흥한 성훈, '줄 서는 식당' 매너 논란으로 '뭇매' [TOP리뷰] 힐링 드라마라던 '우영우', 길 잃은 자폐 설정-'갑분' 러브라인에 발목 [내돈내산⑦] "기자도 사봤다" 영탁 17년 만의 첫 번째 단독 콘서트! 'TAK SHOW' 네번째 이야기 ″쏘스윗 실버보이스″ 방탄소년단 진, '믿고 듣는 실버보이스' 베니 블랑코•스눕독 협업곡 '배드 디시전스' 공개 중요기사 [종합] ‘오은영 리포트’ 김응수X하하, 선 넘은 남편의 눈물에 아빠 공감…오은영은 “게임 중독 아니고 우울증” 솔루션은? [종합] ‘프리한19’ 전현무X오상진X한석준, 과학적 저주-소변 참으면 거짓말 잘한다?-롤러코스터 결석 제거?-아세트 아미노펜 마음 진통제 [종합] ‘안다행’ 리헤이, 제주도 출신 비 온 뒤 바다에서 낙지-광어 맨손으로 잡아 붐X안정환은 모니카 밖에서는 애기 같아 [종합] '구해줘! 홈즈' 오마이걸 미미, 배우 이정현 상대로 승리…7호선 매매 매물 찾기, '철산역 대단지 아파트' 우승 [종합] ‘SBS 스페셜-국과수-첫방’ 죽음의 추적자, 시신 냄새-화재 현장-혈흔 가득 사건 현장… 6개월 밀착 취재 충격사건 등굣길 초등생 집으로 끌고가 성폭행한 80대, 징역 20년 구형…"사전에 비아그라 준비" 30대 남성 인천공항서 중요부위 자해…승객들 큰 충격 미성년자 꾀어 성착취물 찍게 한 초등교사, 항소심 '징역 18년' ↑…피해자 120여 명 여친 목졸라 살해하고 시신 옆서 영화보며 식사하고 이틀 지낸 20대 징역 30년 미성년 처조카와 처남댁 강제 추행하고 성폭행한 40대 공무원, 항소심도 징역 10년 노예처럼 산 유흥업소 감금·폭행 여종업원들, 속옷만 입은 채 쇠사슬과 개 목줄 몸에 감고 꼼짝 못해 폭행 신고했다고 사실혼 아내 입에 소변 본 남편, 보복상해·보복협박·보복폭행 혐의로 징역 3년 제주서 초등생 어린 조카 상대 10년 동안 성폭행 50대 징역 7년 7년간 미성년 의붓딸 21차례 성폭행한 40대 징역 20년…첫 범행 당시 의붓딸은 9세 "엄마한테 말하면 죽어" 의붓딸 7년간 상습 성폭행, 징역 20년 페이스북 트위터 네이버 인스타그램 카카오스토리 유튜브 웨이보 취재본부 : 02-3443-4662 매체소개 광고안내 콘텐츠 구매 문의 기사제보 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. (주)소셜미디어네트웍스 신문등록번호 : 서울 아 01403 신문등록일 : 2010-11-09 제호 : 톱스타뉴스 발행인 : 장영권 편집인 : 김명수 발행일자 : 2010-09-06 발행소 : 서울특별시 강남구 학동로30길 14 (두원건설빌딩) 2층 (우) 06105 주사무소 또는 발행소의 전화번호 : 02-3443-4662 팩스 : 02-525-4661 청소년보호책임자 : 최규석 [열린보도원칙] “당 매체는 독자와 취재원 등 뉴스이용자의 권리보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. reporter@topstarnews.co.kr, *제보하기 *반론요청 윤리강령 보도/편집 규약 청소년보호정책 개인정보취급방침 이메일무단수집거부 독자투고 고충처리/불편신고 Copyright © 2010 - 2022 톱스타뉴스 (TOPSTARNEWS.NET) 제휴통신사</t>
+    <t>[아주종목분석] 롯데관광개발 내년 제주도 복합 리조트 완공 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 [아주종목분석] "롯데관광개발 내년 제주도 복합 리조트 완공" 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 [아주종목분석] "롯데관광개발 내년 제주도 복합 리조트 완공" 기자정보, 기사등록일 강민수 기자 입력 2018-11-30 09:14 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 카지노·호텔·엔터테인먼트 시설 갖춰…제주 169m 랜드마크 [사진=아주경제 DB] 하나금융투자는 롯데관광개발이 내년에 제주도 복합 리조트를 완공하는 점을 눈여겨보라고 조언했다. 투자의견은 완공이 가시화되는 내년 상반기에 제시하겠다고 밝혔다. 30일 하나금융투자에 따르면 롯데관광개발은 내년 4분기 신규 복합리조트인 제주 드림타워를 완공할 예정이다. 이기훈 하나금융투자 연구원은 "그랜드코리아레저(GKL)와 유사한 규모의 카지노, 1600실의 호텔 객실, 식음료(F&amp;B) 및 엔터테인먼트 시설을 갖췄다"며 "이를 고려할 때 사드 규제 완화 시 최소 GKL보다 실적 잠재력이 높을 것"이라고 기대했다. 롯데관광개발은 지난해 매출의 83%는 여행업, 14%는 분양으로부터 벌어들였다. 여행업은 크루즈, 버스, 패키지 등 사업을 통해 연간 60~70억 내외의 안정적인 이익을 내고 있다. 다만, 하나금융투자는 롯데관광개발을 카지노 사업자로 분류했다. 이기훈 연구원은 "복합리조트 개발에 따라 카지노 사업자로 분석한다"고 설명했다. 제주 드림타워는 지상 38층, 지하 6층으로 높이는 169m다. 이는 제주도의 건축물 고도제한선(55m)를 훨씬 뛰어넘는다. 이 연구원은 "제주도 랜드마크 개발을 위해 주민공청회까지 마친 특별허가를 받은 건축물"이라고 강조했다.관련기사백현 롯데관광개발 사장 "국가 브랜드 및 경쟁력 높일 크루즈 산업에 주목해야"롯데관광개발, 마카오 복합리조트 스타 호텔리어 잇따라 영입 제주 5개 주요 도로가 교차하는 노형오거리에 있고, 공항 및 면세점과도 가깝다. 이 연구원은 "제주공항에서 3km, 국제크루즈터미널에서 7km 거리"라며 "개발 후에는 제주공항에 5분 간격으로 무료 리무진 셔틀버스를 운영할 계획"이라고 설명했다. 그는 "면세점이 양쪽에 있어 사드 규제 완화 시 중국인 단체 고객을 유인하는 데 장점이 될 것"이라고 덧붙였다. #롯데관광개발 #아주종목분석 #제주드림타워 #카지노 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 5국경절 연휴 마친 증시…호재 뒤늦게 반영할까 6尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 2尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4김두관 의원 "코레일 근무태만 천태만상 심각" 5'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 6​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4신화 신혜성, 도난차량서 음주측정 거부로 체포 5대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 6강원도관광재단, 전국 최초 워케이션 상담회 개최 7前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 6숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 7창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>전남 진도군, 제주도 ‘사후면세점’에서 농수특산품 판매·문화관광 홍보 : 100세시대의 동반자 브릿지경제 로그인 회원가입 검색창 닫기 전체 메뉴 산업 금융 증권 부동산 생활경제 정치 전국 오피니언 l 비바100 피플 문화·연예 전체기사 Health(건강) Encore Career(일) Money(돈) Leisure(여가) Life(라이프) Education(교육) Welfare(복지서비스) 사설 칼럼 외부기고 비주얼 포토 카드뉴스 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT / 산업 라이프 사회 뉴스 산업·IT·과학 기업경영·재계 자동차·부품·타이어 전기·전자·반도체 항공·해운·물류·무역 조선·철강·기계금속·방산 석유화학·정유·가스·전력 섬유·제지·광고·건자재 IT·모바일·방송통신·인터넷 게임·SW·포털·제약·바이오·과학 중견·중소·벤처 경제일반 경제일반 통상 공기업 경제정책 금융 정책 은행 보험 제2금융 외환 재테크 증권 정책 종목분석 투자전략 시황·증시분석 증권가 브리핑 해외 증시 부동산 분양정보 경매 부동산 칼럼 부동산 뉴스 건설산업 뉴스테이 정치·정책 정책 정치일반 청와대 국회·정당 외교·통일 생활경제 유통 식음료·주류 주거·생활 패션·뷰티·화장품 프렌차이즈 창업 중견·중소·벤처 사회 사회일반 노동·환경 교육·행정 사건·사고 법원·검찰 국방 국제 국제일반 국제경제 토픽 헬스 의료 생활건강 식품의약품 보건복지 피플 인터뷰 인사 동정 부음 社告 문화 영화 이슈&amp;이슈 음악 축제 전시 연극·뮤지컬 Book 라이프스타일 방송·연예 문화배우기 정책 웹툰 여행·취미 여행 취미 레저 스포츠 스포츠 종합 골프 축구 야구 격투기 농구·배구 전국 서울·수도권 강원 충청 영남 호남 제주 오피니언 사설 칼럼 데스크칼럼 새문안通 기자수첩 원 클릭 時事 외부기고 브릿지칼럼 명의칼럼 전문가 기고 시장경제칼럼 비바100 건강 일 돈 여가 라이프 교육 복지서비스 비주얼 포토 카드뉴스 동영상 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT / 산업 라이프 사회 회사소개 회사소개 조직도 찾아오시는길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 검색버튼 산업 금융 증권 부동산 생활경제 정치 전국 오피니언 비바100 피플 문화·연예 검색창 닫기 전체기사ㅣ서울·수도권 ㅣ 강원 ㅣ 충청 ㅣ 영남 ㅣ 호남 ㅣ 제주 현재위치 : 홈 &gt; 뉴스 &gt; 전국 &gt; 호남 전남 진도군, 제주도 ‘사후면세점’에서 농수특산품 판매·문화관광 홍보 입력 2018-11-30 11:36 연관검색어 진도군 진도 진도군청전경 사진제공=진도군청전남 진도군이 외국인 관광객을 유치하기 위해 ‘사후면세점’에 진도아리랑 청정 농수산물 판매와 문화관광 홍보를 적극 추진한다.30일 진도군에 따르면 사후면세점은 중국, 베트남, 태국 등 외국인 관광객을 대상으로 하며, 제주국제공항 인근에 ‘해태 김 박물관’을 최근 개장했다.이를 위해 군은 해외 여행객을 전문으로 하는 여행사 4개소와 업무협약을 지난 11월 30일(금) 체결하고 청정해역에서 생산된 진도 김, 진도 역, 진도 울금 등 진도 농수산물을 판매하고 있다.특히 사후면세점 내부에 다양한 홍보 부스를 마련, 진도 신비의 바닷길 축제, 진도개 페스티벌 등 진도군 주요 축제와 운림산방, 세방낙조 등 주요 관광지 등도 함께 홍보하고 있다.사후 면세점인 ‘해태 김 박물관’은 1,386㎡ 면적에 진도 농수산물 판매 매장과 함께 수산물의 우수성을 체험하기 위한 체험 공간 등으로 구성되어 있어 외국인 관광객들로부터 ‘호평’을 받고 있다.진도군 경제마케팅과 관계자는 “자치단체에서 사후 면세점에 지역의 농수산물을 집중적으로 판매하고 축제와 주요 관광지 등을 홍보하는 사례는 이번이 처음”이라고 말했다.그리고 “2019년 진도대명해양리조트 개장을 앞두고 다양한 관광 상품을 개발하는 동시에 지역의 농수산물을 홍보하고 외국인 관광객을 유치하는 데 힘쓰겠다”고 밝혔다.한편 외국인 관광객이 사후면세점에서 3만원 이상을 구매한 후 출국시 영수증을 세금환급창구에 제시하면 부가가치세와 개별소비세를 돌려받을 수 있다. 면제 한도는 제한이 없다.진도=정인천 기자 jicrino@viva100.com 기자의 다른기사보기 &gt; 이 기사에 댓글달기 댓글 접기 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 온라인 핫클릭 ·8년 만에 BIFF 방문한 진가신 감독 "영화감독이 아닌 삶은 상상할 수 없다"·‘그랜드 엑스페디션’ 정인석 프로듀서 “우리 창작진이 꾸린 이머시브 다이닝도 선보이고 싶어요!”·"자녀와 '상호작용'하면 5분 놀아줘도 1시간 효과"·은퇴 초반 철칙… 노후자금 수익률 높이고 인출은 줄여라·직장인 대상 '토론 프로그램'…지식 쌓고, 소통·분석 능력↑·신화 신혜성, 도난차량서 음주측정 거부하다 경찰에 체포 스포츠 월드 ·KLPGA 투어 1인자 박민지, 여자 골프 세계 랭킹 16위·김주형, PGA 투어 슈라이너스 칠드런스 오픈 ‘노보기’ 우승…두 달 만에 통산 2승·김세영, LPGA 투어 메디힐 챔피언십 7위·‘1인자’ 박민지, KLPGA 투어 하이트진로 챔피언십서 연장전 끝에 우승·김영수, 코리안 투어 제네시스 챔피언십서 역전 우승…107번째 출전 만에 첫 승·김세영·강혜지, LPGA 메디힐 챔피언십 3라운드 공동 13위…‘톱 10’에 한국 선수 들지 못해 김규리, 완벽 옆태 아이즈원 출신 이채연, ‘허쉬 러쉬’ 첫 콘셉트 포토 공개…12일 솔로 데뷔 체리블렛 채린, ‘슈룹’ 출연 확정…김혜수 과거 시절 연기 정시아, ‘이츠 마이 라이프’ MC 발탁…“일상 속 정보 전달” YG엔터, 제니 사진 유출 관련 ‘법적 대응’…“경찰에 수사 의뢰” 기획시리즈 ESG 경영이 미래다 “순환경제가 탄소중립 현실적 해결 방안…신기술로 새시장 개척해야” KT&amp;G, 지구온도 낮추는 녹색경영… 지속가능한 생태계 키운다 이희연 KT&amp;G ESG기획팀장 "객관적 성과 측정… 이해관계자 소통 강화할 것" 人더컬처 8년 만에 BIFF 방문한 진가신 감독 "영화감독이 아닌 삶은 상상할 수 없다" 장동윤이 영화 '늑대사냥'에 미친 이유! 염정아에게 춤과 노래란? 맘 with 베이비 "자녀와 '상호작용'하면 5분 놀아줘도 1시간 효과" 광명시의회 안성환 의장 “경력단절 없도록… 육아휴직 대체인력 지원 늘려야” "밤 오줌 못 가리는 아이, 실수해도 야단치지 마세요" 직장인 2막 직장인 대상 '토론 프로그램'…지식 쌓고, 소통·분석 능력↑ 실패땐 복직 보장… 창업, 걱정 말고 도전하세요 농작물 재해 손해평가… 2차 합격률 20%대 '좁은문' 스타트업 "더 빠르고 정확하게"… 심정지 환자 소생률 높인다 컴투스 창업자의 새로운 도전… "해긴은 모두가 행복한 게임회사를 꿈꿉니다" "인테리어는 곧 공간에 대한 이해… 건축주 니즈 최선" 열정으로 사는 사람들 윈골드 류홍열·김탁종 대표 “金거래시장 틈새 발견… 변호사 둘이 일냈죠” "건설일용직도 모바일 매칭… 새벽 줄서기 없앴죠" 창업 생존율 확대…실습·실무 '창업교육' 나선 넥스트랩 김진태 대표 테크리포트 현존 최고 자물쇠 채워라!… 국내 이통사 '양자암호통신' 개발 경쟁 10분 이상 버텨라! 불에 강한 단열재 생산 불붙었다 K수소 무한 확장… 블루수소 만들고 UAM 띄운다 안종배 회장의 인공지능과 메타버스 미래세상 "세계가 주목하는 메타버스 리더, 누구나 될 수 있죠" 우리는 메타버스 시대에 살고 있다 메타버스, 미래 핵심기술 선도한다 스마트 라이프 ‘뉴 스페이스’ 시대 성큼… 제약·바이오도 우주 시장 ‘눈독’ "학습자 누구나 시험 합격때 수강료 100% 환급해드려요" "수하물 탑재 완료됐어요"…AI 챗봇이 다 알려드려요 많이본뉴스 최신뉴스 이시각 주요뉴스 코로나19 신규 확진자 1만5476명…사망자 91일만에 최소 코스피, 장 초반 2%대 하락…2200선 붕괴 [대통령의 한마디] "담대한 구상, 비핵화 이끌어 내기에 유효 할 것" 글로벌 경제위기에 국민연금 올해 상반기 적자 77조원… “투자다변화 전략 필요” 한경연 “법인세율 3.3%p 인하하면 GDP 10년간 연평균 1.4%↑” 3분기 단기사채 자금조달 250.9조…전년比 22.2%↓ 창립 70주년 맞은 한화…김승연 회장 "지속적 혁신" 주문 올해 아울렛서 화재 세 차례…노동부, 대규모 유통업체 불시점검 [오늘의 1면] 아파트 매매가·전세가 급락세··· 부동산 지표 '사상 최악' 러시아 미사일공습에 삼성 입주건물 피해…삼성 “직접 피격 아냐” TODAY TOPIC 1 2 공효진·케빈오, 12일 미국 뉴욕서 비공개 결혼식 “변명의 여지 없어” 신혜성, 음주운전 사과…차량 절도는 아냐 반환점 돈 영화제, 폐막까지 D-3… 올해 부국제는 어땠나? 선우은숙, 4세 연하 유영재 아나운서와 결혼…“혼인신고 마쳐” '죽음 권하는 사회', 영화 '플랜75'가 주는 리얼함 8년만에 BIFF 찾은 진가신 "영화감독이 아닌 삶은 상상할 수 없다" “우리 창작진이 꾸린 이머시브 다이닝도 선보이고 싶어요” 누가 뭐래도 갓병헌! "감독님 그때 저에게 왜 그러셨어요?" 뉴스 산업·IT·과학 기업경영·재계 자동차·부품·타이어 전기·전자·반도체 항공·해운·물류·무역 조선·철강·기계금속·방산 석유화학·정유·가스·전력 섬유·제지·광고·건자재 IT·모바일·방송통신·인터넷 게임·SW·포털·제약·바이오·과학 중견·중소·벤처 경제일반 경제일반 통상 공기업 경제정책 금융 정책 은행 보험 제2금융 외환 재테크 증권 정책 종목분석 투자전략 시황·증시분석 증권가 브리핑 해외 증시 부동산 분양정보 경매 부동산 칼럼 부동산 뉴스 건설산업 뉴스테이 정치·정책 정책 정치일반 청와대 국회·정당 외교·통일 생활경제 유통 식음료·주류 주거·생활 패션·뷰티·화장품 프렌차이즈 창업 중견·중소·벤처 사회 사회일반 노동·환경 교육·행정 사건·사고 법원·검찰 국방 국제 국제일반 국제경제 토픽 헬스 의료 생활건강 식품의약품 보건복지 피플 인터뷰 인사 동정 부음 社告 문화 영화 이슈&amp;이슈 음악 축제 전시 연극·뮤지컬 Book 라이프스타일 방송·연예 문화배우기 정책 웹툰 여행·취미 여행 취미 레저 스포츠 스포츠 종합 골프 축구 야구 격투기 농구·배구 전국 서울·수도권 강원 충청 영남 호남 제주 오피니언 사설 칼럼 데스크칼럼 새문안通 기자수첩 원 클릭 時事 외부기고 브릿지칼럼 명의칼럼 전문가 기고 시장경제칼럼 비바100 건강 일 돈 여가 라이프 교육 복지서비스 비주얼 포토 카드뉴스 영상 영상 세상에 이런일이 스포츠 이모저모 연예·뮤직비디오 IT·산업 라이프 사회 회사소개 회사소개 조직도 찾아오시는길 회원약관 개인정보취급방침 이메일무단수집거부 신문구독신청 회사소개 | 조직도 | 찾아오시는길 | 회원약관 | 개인정보취급방침 | 이메일무단수집거부 | 신문구독신청 | 저작권 규약 | 청소년보호정책 | 원격지원 | 고충처리인 | 윤리강령 및 기자준칙 서울특별시 종로구 새문안로5길 13, 9층(당주동, 변호사회관) / 인터넷신문등록번호 : 서울,아03028 / 등록일자 : 2014년 3월 3일 / 제호 : 브릿지경제신문 / 발행인·편집인 : 김현수 / 청소년보호책임자 : 조진래 / TEL : 02-2070-0200 l FAX : 0303)0952-0200 / 한국신문협회, 한국온라인신문협회 회원사 / 매체사 자체 윤리 강령, 규제 제도에 의해 윤리강령을 준수합니다. / 인터넷신문위원회 자율심의 준수서약사 Copyright by Bridgenews Co.,Ltd. All Rights Reserved</t>
+  </si>
+  <si>
+    <t>제주도, 인도네시아에 생태관광 직업훈련 지원 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 인도네시아에 생태관광 직업훈련 지원 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 인도네시아에 생태관광 직업훈련 지원 신동원 기자 headlinejeju@headlinejeju.co.kr 승인 2018.11.29 14:14 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 공적개발원조사업 대상 국가 확대 제주도가 개발도상국에 대한 공적개발원조 사업의 일환으로 인도네시아에 생태관광 직업훈련을 지원한다. 제주특별자치도는 올해 공적개발원조(ODA)사업을 몽골, 동티모르, 부룬디 3개국에 이어, 인도네시아까지 4개국으로 확대 시행한다고 29일 밝혔다.인도네시아 ODA사업은 인도네시아 보르네오섬에 위치한 칼리만탄 지역에서 생태관광 직업훈련을 지원하는 사업이다. 제주도는 지난 10월말 제주평화봉사단과 협약을 체결해, 올해부터 3년 동안 지속사업으로 이 사업을 추진한다.올해 사업 1차년도에는 노후된 시설을 개보수해 초기 생태관광 직업훈련을 시작한다. 2차년도에는 제주-인도네시아 생태관광 직업훈련센터 시설 및 정기교육을 추진하며, 마지막 3차년도에는 직업훈련교육, 관광기념품 개발, 주민역량강화 사업 등을 추진한다. 지원이 이뤄지는 칼리만탄지역은 지역관광인력 중 여성참여 비율이 현저히 낮은 반면, 소득창출과 연계한 직업훈련에 대한 여성들의 수요가 늘고 있다는 점과 여성여행자를 위한 여성가이드, 관광상품 개발 등 관광 관련 직업수요가 있다는 점이 맞물려 이번 ODA사업의 적격지역으로 선정됐다.제주도는 인도네시아 생태관광 ODA사업의 원활한 추진을 위해서는 관광상품 개발과 홍보마케팅 등 분야별 전문가 컨설팅 및 실행을 위한 트레이닝, 열대우림 보존 등을 위한 가이드라인 도입 검토가 필요하다고 판단, 인도네시아 정부 측과 협력해 나가기로 했다.조상범 제주도 문화체육대외협력국장은 "이번 ODA사업이 인도네시아 생태관광산업 역량을 키워나가는데 제주가 큰 도움이 되기를 바란다"고 전했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 신동원 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제3차 제주도 관광진흥계획, '청정휴양 관광도시' 목표 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제3차 제주도 관광진흥계획, '청정휴양 관광도시' 목표 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제3차 제주도 관광진흥계획, '청정휴양 관광도시' 목표 제주CBS 박정섭 기자 메일보내기 2018-11-23 17:37 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 트램 타당성 검토와 제주-북한 연계 교차관광상품도 제시 제3차 제주도 관광진흥계획은 고품격 관광지를 표방한 2차 진흥계획을 확장시켜 청정휴양 관광도시로서 질적성장을 꾀하는 것으로 제시됐다. 23일 제주웰컴센터에서 열린 제주관광진흥계획 연구용역 토론회에서 제주관광학회는 2023년을 목표로 한 제3차 제주도 관광진흥계획을 내놨다.제3차 관광진흥계획은 우선 '행복을 키우는 청정휴양 관광도시'를 목표로 민선7기 관광정책 기조인 '질적 성장'과 문재인 정부의 관광정책 기조 '쉼표가 있는 삶, 사람이 있는 관광'을 반영했다.지역주민은 소득증가와 삶의 질 향상을, 관광객은 관광체험의 만족을, 사업자는 적정한 이윤 확보를, 종사원은 직장의 안정과 성장을 꾀하는 등 제주관광 모든 주체의 행복을 키워나가겠다는 의미를 담았다.목표로 제시된 관광수용 태세의 개선과 혁신을 위해 여행업은 전문성 강화와 맞춤형 관광상품 개발을 촉진하고, 숙박업은 관광트렌드 변화에 대응하는 숙박시설의 질적관리에 초점을 맞출 것을 제안했다.외식업은 제주향토음식의 세계화에, 관광지는 제주관광시장 변화에 맞춘 콘텐츠 발굴과 공정관광 환경 조성에, 카지노업은 지역사회와의 상생과 사회 환원에 목표를 뒀다.청정환경 지속가능성 향상을 위해선 마을 문화관광사업 육성으로 공동체 강화와 일자리를 창출하는 등 주민주도형 문화관광을 육성하고, 문화예술을 접목한 공연 관광상품 개발로 제주형 공연관광을 활성화하기로 했다.친환경 관광교통 체계 정립 차원에서 녹색 교통수단이란 장점에도 불구하고 경제성이 약하다는 이유로 논의가 중단된 '트램'의 타당성을 검토하기로 했다. 지식기반 마케팅 체계와 경쟁력 강화를 위해 중국시장의 지속적 관리와 시장 다변화 전략을 모색하고, 제주관광 브랜드 가치 향상 방안을 마련하기로 했다.개방형플랫폼을 활용한 관광비즈니스모델 창출과 4차산업혁명 연계한 지능형 관광활성화, 빅데이터를 활용한 관광정보 체질 개선도 모색하기로 했다.남북교류 확대에 따른 제주관광 대응을 강화하기 위해 제주-북한 연계 평화크루즈를 운영하고, 항공을 통한 제주-북한 연계 교차관광상품 개발도 제시됐다.제주의 청정과 휴양에 기반한 고부가가치 관광상품 개발과 수익증대를 위해 지역특화 산업 육성과 스마트 마이스 환경을 조성하고, 레저스포츠 관광대표 브랜드 육성, 중장기 크루즈 산업 육성, 그리고 쇼핑관광 인증제 도입 등을 통한 쇼핑환경도 개선하기로 했다.제3차 제주도 관광진흥계획은 도의회 의견 수렴과 최종보고회를 거쳐 올해 안에 확정될 계획이다. 더 클릭 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 모텔서 숨진 5개월 아기…부모가 홀로 두고 장시간 외출했다 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 15살 성매수·몰카 찍은 30대…요구 거부하자 "전세계로 퍼진다" 정진석, 김용민 '尹정부 퇴진'주장에 "민주당 공식 입장인가" '택시 연 매출, 배달업의 1/3에 불과' "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 군 "北 저수지 탄도미사일, 한미 '킬 체인' 의식"…실효성은 글쎄? 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 관광국 컨트롤타워 역할 부실…대행사업·기금비중 줄여야 &lt; 문화뉴스 &lt; Culture &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 Culture 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 본문영역 이전 기사보기 다음 기사보기 제주도 관광국 컨트롤타워 역할 부실…대행사업·기금비중 줄여야 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 Culture 문화뉴스 제주도 관광국 컨트롤타워 역할 부실…대행사업·기금비중 줄여야 기자명 김봉철 기자 입력 2018.11.27 15:30 수정 2018.11.27 17:35 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도를 방문한 중국 관광객(자료사진).양영식·강민숙·문종태 의원 27일 도의회 정례회서 밝혀 제주 관광정책의 컨트롤타워인 제주도 관광국이 공기관대행사업 등 외부에 업무를 맡기는 비중이 너무 높아 제 역할을 못하고 있다는 지적이다. 제주도의회 문화관광체육위원회(위원장 이경용) 소속 의원들은 27일 2019년도 제주도 예산안 심사에서 이같은 비판을 쏟아냈다.더불어민주당 양영식 의원(연동갑)은 "외국인 관광객에 이어 내국인 관광객마저 감소세로 돌아선 상황에서 내년 관광국 예산에는 이를 타개할 의지가 부족해 보인다"며 "관광국 일반회계 예산을 217억원 감액하고 제주관광진흥기금을 321억원 증액해 기금 비율이 70%가 됐는데, 이는 이미 확보된 기금을 가져다 쓴다는 점에서 전체 관광예산이 감소했다는 것을 뜻한다"고 꼬집었다.이어 "관광국 소관 공기업대행사업과 민간위탁 등 아웃소싱 사업이 100개가 넘는다. 관광진흥기금·대행사업비 정산 말고 하는 일이 무엇이냐"고 따져 물으며 "연구용역까지 위탁하는 것은  유관기관에도 과부하를 주는 만큼 관광국이 직접 진행해야 한다"고 밝혔다.더불어민주당 강민숙 의원(비례대표)은 "원희룡 도정 출범 이후 제주관광공사와 제주관광협회 예산이 2배 가까이 늘었고, 인력 증원과 예산 추가지원이 잇따르고 있다"며 "내년 관광공사는 30억원, 관광협회는 10억7500만원의 지원을 요청할 정도로 업무가 늘어났다"고 말했다.강 의원은 "하지만 관광국이 7억원을 들여 추진하는 해외 홍보사업과 관광공사의 해외마케팅, 관광협회의 온라인마케팅 사업이 중복되는 등 업무 효율성을 검토해야 한다"며 "유관기관 쏠림을 해소하고 각각의 목적에 맞는 업무를 할 수 있도록 중심을 잡아달라"고 밝혔다.더불어민주당 문종태 의원(일도1동·이도1동·건입동)은 "조례에 따라 심의를 받고 종종 감액되는 일반회계의 연구용역에 비해 관광진흥기금으로 용역을 하는 것은 투명성에 문제가 있을 수 있다"며 "카지노 매출 감소 전망과 면세점 매출액 1% 를 거두는데 대한 형평성 문제 등으로 기금이 고갈될 우려도 있다"고 말했다.이어 "관광국 주무부서인 관광정책과의 현원이 20여명에 불과하고 가용 사업예산도 56억원에 그친다. 무슨 일을 할 수 있겠나"라며 "이번 관광객 감소는 제주관광을 질적으로 성장시키는 기회가 될 수도 있는 만큼 관광국의 역할을 강화해야 한다"고 강조했다. 김봉철 기자 bckim@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 공무직 채용, 관광지매표원직 경쟁률 46.2대1 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도 공무직 채용, 관광지매표원직 경쟁률 46.2대1 등록 2018.11.19 17:24:15 작게 크게 전체 37명 공개채용…15.3대1 【제주=뉴시스】강정만 기자 =  제주특별자치도는 최근 원서를 접수한 제1회 공무직 공개채용 37명 모집에 565명이 지원해 15.3대 1의 경쟁률을 나타냈다고 19일 밝혔다. 가장 많이 지원한 분야는 관광지 매표원직으로 5명 모집에 231명이 지원해 46.2대 1의 경쟁률을 보였다. 다음이 의료급여관리직으로 1명 모집에 25명이 지원해 25대 1로 나타났다. 이어 종묘·포장 직 6명 모집에 105명이 지원해 17.5대1, 도로시설물관리직 3명 모집에 49명이 지원해 16.3대1, 유기동물 보호관리 4명 모집에 43명이 지원해 10.8대 1, 청사 청소정비직 5명 모집에 34명이 지원해 6.8대 1 순이었다. 필기시험 장소는 오는 21일 공고되며 12월 1일 필기시험과  12월 17일 면접시험을 거쳐 12월 19일 최종합격자를 발표한다. 도는 내년에는 상반기, 하반기 각 1회씩 공무직 공개경쟁 채용을 실시할 예정이다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도관광협회, '오키나와 관광박람회' 관광 홍보부스 운영 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, '오키나와 관광박람회' 관광 홍보부스 운영 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, '오키나와 관광박람회' 관광 홍보부스 운영 기자명 고병수 기자 입력 2018.11.20 15:15 수정 2018.11.20 15:16 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 비즈니스 세일즈 추진 (제주=국제뉴스) 고병수 기자 = 제주도관광협회는 ‘오키나와 관광박람회2018’에 제주관광 홍보부스를 운영하는 등 비즈니스 세일즈를 추진한다고 20일 밝혔다.김영진 제주도관광협회장은 22일부터 25일까지 우호협력교류단체인 일본 오키나와관광컨벤션뷰로(회장 타이라 쵸우케이)와 류큐지역 관광객 유치 활성화를 위한 전략적 협력 비즈니스 네트워크 교류를 위해 오키나와를 방문한다.이번 방문은 연례적인 직항 전세기 운항 및 기존 오키나와-인천(부산) 노선을 이용한 인천(부산)경유 제주관광상품 개발을 위한 간담회도 추진한다.     올해 9월 기준 제주방문 일본 관광객은 6만1698명으로 전년 4만 513명에 비해 52.3%로 대폭 증가하는 등 지속 성장세를 보이고 있다 한편 제주도관광협회는 오키나와관광컨벤션뷰로와 지난 2006년 1월11일 레저ㆍ스포츠를 연계한 양 지역 관광객 유치 활성화를 위한 우호교류협약을 체결 한 바 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>12월 제주도 여행 10선...놓치지 말아야 할 관광명소는? - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 12월 제주도 여행 10선...놓치지 말아야 할 관광명소는? 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 12월 제주도 여행 10선...놓치지 말아야 할 관광명소는? 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2018.11.20 10:32 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광공사, 관광지.자연.체험.축제.음식 등 10선 발표 제주관광공사(사장 박홍배)는 20일 '제주에 지친 마음을 풀어놔요. 수고했어 2018'이라는 주제로 관광지, 자연, 체험, 축제, 음식 등 다양한 분야에서 놓치지 말아야 할 12월 제주관광 추천 10선을 발표했다. 1. 동장군 물리치는 제주 겨울축제 제주의 겨울이 심심할거라는 편견은 이제 버리시라. 흥 넘치는 겨울축제로 12월 제주를 꽉 채웠기 때문이다. 뜨거운 호응을 얻었던 제주윈터페스티벌이 올해도 펼쳐진다. 12월 20일부터 내년 1월 6일까지 칠성로 일대에서 겨울 느낌이 물씬 풍기는 포토존이 마련되고, 미니콘서트가 열린다. 뿐만 아니라 ‘2018 크리스마스 파티 - 원도심이 와랑와랑’이라는 타이틀로 12월 22~23일 칠성로에서 특별한 공연이 이어져 크리스마스 분위기를 한껏 달굴 예정이다. 이번 파티에는 백지영, 에픽하이, 나플라&amp;루피, 로맨틱 펀치, 이정, 잔나비, 데이브레이크, 넉살&amp;딥플로우&amp;이로한 등이 출연해 무대를 꾸민다. 겨울축제의 열기로 동장군까지 물리칠, 제주의 12월을 함께 즐겨보자. ▸ 제주윈터페스티벌 : 제주시 철성로 일대▸ 원도심이 와랑와랑 : 제주시 칠성로 야외특설무대2. 제주에 내려온 크리스마스의 기적 ; 크리스마스 박물관&amp;카페소복이 쌓인 새하얀 눈, 침엽수를 수놓은 크리스마스 장식들, 거리에 울려 퍼지는 캐롤 음악... 겨울이 다가오면 온 세상은 크리스마스 준비로 바빠진다. 생각만 해도 미소가 입가에 번지는 크리스마스 시즌. 제주에서는 365일 크리스마스를 만날 수 있는 기적의 플레이스가 있다. 서귀포시 안덕면에 위치한 바이나흐튼 크리스마스 박물관은 산타, 장남감 병정, 크리스마스 트리 등으로 꾸며져 있다. 주인 부부가 직접 유럽에서 공수해 온 인형들이 눈길을 사로잡는다. 화요일마다 플리마켓을 운영하는데 11월 29일~12월 25일까지는 매일 크리스마스 마켓을 열고, 12월 24, 25일에는 가장행렬이 준비되어 있다. 중문에 위치한 카페, 더클리프에서는 재미있는 크리스마스 이벤트가 예정되어 있다고 하니 12월 서귀포를 방문했다면 함께 방문해보기를 바란다. ▸ 바이나흐튼 크리스마스 박물관 : 서귀포시 안덕면 평화로 654▸ 더클리프 : 제주 서귀포시 중문관광로 154-17 3. 크리스마스 나무 만나러 가는 길 ; 한라생태숲 '구상나무숲’춥고 외로운 겨울의 거리를 축복과 온기로 가득 채우는 일등 공신은 바로 크리스마스 트리. 크리스마스 트리에 쓰이는 나무는 어떤 품종일까? 이 나무가 제주 한라산 구상나무라는 사실은 잘 알려져 있지 않다. 서양에서는 크리스마스 트리로 전나무를 오랫동안 사용해 왔지만 18세기 초 제주를 방문한 서양 신부들은 전통적 크리스마스 트리 모양과 닮은 원뿔형 구상나무를 채취해갔고, 점점 품종개량을 거쳐 현재 가장 사랑받는 크리스마스 트리 나무가 되었다. 그런데 정작 원산지인 우리나라에서는 멸종위기에 처해있는 현실. 제주 한라생태숲에서는 귀한 구상나무를 직접 만나볼 수 있다. 구상나무는 형태도 아름답지만, 향기가 좋아 구상나무숲에 들어서면 깨끗한 공기와 함께 향긋한 내음이 콧속으로 밀려온다. ▸ 한라생태숲 : 제주시 516로 25964. 20년 적막 깨고 빛으로 휘감은 비밀 갤러리 ; 빛의 벙커 태양이 뜨는 마을, 성산에 숨겨져 있던 벙커가 제주의 색을 고스란히 닮은 빛의 갤러리로 변모했다. 이곳은 국가 기간통신망을 운영하기 위한 해저 광케이블을 관리하던 약 900평 규모의 철근 콘크리트 건물이었다. 사용가치를 다해 잊혀가던 중 프랑스 몰입형 미디어아트 AMIEX를 활용할 수 있는 최적의 장소로 결정됐고, 프랑스 외에 최초로 제주에서 선을 보이게 됐다. 프로젝터를 통해 화려한 레이저 그래픽을 콘크리트 벽에 씌워 새로운 공간을 연출하는데, 이번 전시는 구스타프 클림트를 중심으로 그와 동시대에 활약했던 작품들이 벙커 내부를 가득 채운다. 원화의 화려한 색채는 오직 빛으로 완벽히 구현되어있어 음악과 함께 작품을 좀 더 액티브하게 감상하는 즐거움을 느껴 볼 수 있다. 제주에서 더욱 빛날, 비밀 갤러리로 당신을 초대한다. ▸ 빛의 벙커 미디어아트센터 : 서귀포시 성산읍 고성리 2039-225. 혹한을 견디고 붉은 희망을 틔운다 ; 동백마을 &amp; 애기동백숲제주의 거센 겨울바람에도 아랑곳하지 않고, 보란 듯이 꽃봉오리를 맺는 동백은 가장 혹한의 시기에 새빨간 얼굴을 내민다. 붉은 희망의 꽃은 척박한 이 섬에 어김없이 찾아오는 겨울을 견뎌야 하는 제주민에게 소소한 기쁨이 되어줬다. 서귀포시 남원읍은 겨울이면 붉은 동백꽃으로 물든다. 신흥2리 동백마을은 방풍목으로 키웠던 동백나무를 마을산업으로 발전시키면서 제주의 대표 동백마을이 되었다. 마을 곳곳에서 동백꽃을 만날 수 있고, 데크로 이어진 동백나무숲도 조성되어 있다. 뿐만 아니라 사전예약하면 동백을 이용한 다양한 체험도 가능하다. 위미리의 애기동백숲은 일반 동백나무보다 키가 작은 애기동백나무로 이뤄져있는데, 좀 더 화려한 느낌의 꽃을 피운다. 아름다운 동백꽃 사이를 걸으면 추위는 잊혀지고, 감탄과 경이로 온몸이 데워질지도 모른다. ▸ 신흥2리 동백마을 : 서귀포시 남원읍 신흥리 신흥2리 동백마을▸ 위미애기동백농원 : 서귀포시 남원읍 위미리 927/929 6. 한 땀에 마음을, 한 땀에 힐링을 ; 가죽공방"이탈리아 장인이 한 땀, 한 땀 만든 거라고!” 몇 년 전, 히트했던 드라마 속 유행어처럼 장인은 아니지만, 내 손으로 직접 무언가를 만드는 성취감을 제주에서 얻고 싶다면? 부드러운 감촉과 따뜻한 느낌으로 겨울철에 딱 어울리는 가죽공방의 원데이 클래스를 추천한다. 원데이 클래스를 운영하고 있는 곳은 한림읍의 ‘핸즈웍스’, 제주시 노형동의 ‘손방둥이’ 등이 있다. 공방 선생님의 지도만 잘 따라간다면 어렵지 않게 만들 수 있는데 만드는 제품에 따라 다르지만 짧게는 2시간, 길게는 3~4시간이 소요된다. 직접 바느질 구멍도 뚫어보고 바느질도 하면서 작업에만 집중하다보면 오히려 잡념이 사라져 머리가 맑아진다. 한 땀에는 마음을 담고, 한 땀에는 힐링을 얻다보면 어느새 나만의 작품이 완성되어 있을 것이다. ▸ 핸즈웍스 : 제주시 한림읍 귀덕로 78▸ 가죽공방 손방둥이 : 제주시 진군남2길 10-4 101호 손방둥이7. 나만의 속도로 한라의 중심에 서다 ; 윗세오름세상 만물은 자신만의 리듬으로 살아간다. 사람도 마찬가지. 같은 일 년을 보냈어도, 한 해를 살아온 각자만의 방식과 속도가 있기 마련이다. 내 인생을 남들의 보폭에 맞출 필요가 없듯, 등산도 마찬가지다. 한라산 중턱에 위치한 윗세오름으로 가는 어리목 코스는 왕복 4시간이 걸리기 때문에 내 삶의 속도와 닮은 보폭으로 걷는 것이 윗세오름을 오르는 팁. 숨이 턱 끝까지 차오르는 오르막 구간을 지나면 평탄한 사제비 동산과 만세동산 전망대 만나고, 이내 윗세오름에 도착한다. 뒤로는 백록담이 있는 남벽이 보이고, 앞으로는 시야가 탁 트여있어 세상이 열린 듯한 기분이 느껴진다. 한라의 중심, 윗세오름의 매력은 스스로 올라야 비로소 알 수 있다. 겨울철 한라산의 안전한 산행을 위해 11월 1일부터 입산시간은 오전 6시로, 입산통제시간도 정오로 앞당겨 진다고 하니 미리 일정을 확인하자. ▸한라산 어리목 매표소 : 제주시 해안동 한라산 어리목매표소 등산로 입구8. 저녁놀에 지난 일 년을 보내며 ; 행원육상양식단지&amp;수월봉한 낮을 밝혔던 태양이 붉은 물감을 흩뿌리며 내려와 새파란 하늘을 물들이고, 어느새 검푸른빛 태초의 색으로 바뀌는 순간. 낮과 밤의 경계에 서는, 그 찰나의 시간을 마주하려면 묵묵한 기다림밖에는 답이 없다. 한 해를 마무리하는 이 때, 제주에서 노을을 기다려보자. 제주 일몰 포인트는 주로 서부권을 떠올리지만 동부권에서 보는 일몰도 매력적이다. 구좌읍의 행원육상양식단지는 바다와 오름, 풍차와 어우러진 노을을 감상할 수 있고, 산책로가 조성되어 일몰을 기다리며 잠시 걷기에도 좋다. 서쪽 일몰 스팟인 수월봉은 높은 곳에서 차귀도를 바라보며 수평선으로 사라지는 노을이 멋진 곳이다. 저녁놀을 바라보며, 지난 일 년 간 묵혀두었던 감정을 떠나보내면 새해를 준비할 마음의 공간이 생길 것이라 확신한다. ▸ 행원육상양식단지 : 제주시 구좌읍 해맞이해안로 680-13▸ 수월봉 : 제주시 한경면 수월봉9. 우유빛깔 온천수의 천연 테라피 ; 아라고나이트 온천기나긴 인생길 위에서 잠시 여독을 푸는 것은 삶을 지속해나갈 힘을 보충하는데 아주 중요하다. 쉼 없이 올해를 달려왔다면 제주의 천연 테라피를 받을 자격이 충분하다. 제주에는 온천의 꽃이라 불리는 나트륨 탄산천, 아라고나이트 고온천이 솟는다. 아라고나이트 온천수는 국내 대부분의 온천과 달리 숙성과정에서 투명한 물이 변화해 독특한 우유빛깔을 띈다. 따끈하고 부드러운 온천수에 몸을 담그면 온 몸이 노곤해지면서 달콤한 잠이 쏟아지고, 온천 천연성분이 피부로 흡수되어 피부결이 고와진다. 아라고나이트 온천은 서귀포에 위치한 디아넥스 호텔, 포도호텔, 핀크스골프클럽에서 운영하고 있다. 노천온수풀에서 제주의 청정 공기와 천연 온천수를 동시에 만끽하고, 포도호텔의 객실 내 온천에서 프라이빗한 온천욕을 즐기다보면 피로가 저 멀리 사라진다. ▸ 디아넥스 호텔 : 서귀포시 안덕면 산록남로 762번길 71▸ 포도호텔/핀크스골프클럽 : 서귀포시 안덕면 산록남로 863 10. 매서운 추위에 제맛이 든다 ; 제주의 겨울방어 밤이 가장 어둡다는 동트기 직전, 새벽 4시. 겨울철 제주 어부들은 어둠을 뚫고 바다로 나선다. 제철을 맞은 방어로 가득 찬 만선을 기대하면서. 방어는 날이 추울수록 뱃살이 두툼히 오르고, 고소한 기름이 차올라 겨울철 별미로 손색없다. 다른 지역에서도 방어가 잡히지만 제주 방어는 낚시로 잡아 올린다는 것이 특징. 깊은 바다에서 잡히는 방어는 거센 바람과 조류를 헤엄치느라 살이 차지고 단단해서 주로 회로 먹는다. 방어는 크기가 클수록 맛있다. 5kg이상이면 대방어로 분류하는데 그 맛은 최고 중에 최고. 회, 조림이외에도 방어 머리는 구이나 찌개로 요리한다. 11월 29일부터 12월 2일까지 모슬포항에서 최남단 방어축제가 진행된다. 축제에 참가해 방어를 오감으로 즐겨보는 것도 좋은 경험이 될 것이다. 매서운 추위에 제맛이 드는 방어를 맛보고 싶다면 이 겨울, 제주로 오시라. 제주관광공사 관계자는 “이번 12월 10선은 '수고했어 2018'이라는 테마로 제주에서 한 해 동안 지친마음을 위로받으면 좋을 것 같아 기획됐다”라며 “12월 제주의 겨울과 크리스마스 분위기를 즐기며 2018년을 기분 좋게 마무리하시길 바란다"고 전했다. 제주관광공사의 12월 추천 관광 10선은 제주관광정보 사이트(www.visitjeju.net)에서 자세히 볼 수 있다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 말레시아 관광객 유치위해 '감귤따기 체험' 행사 등 활용 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 말레시아 관광객 유치위해 '감귤따기 체험' 행사 등 활용 등록 2018.11.20 09:55:57 작게 크게 제주, 동남아 관광설명회 모습(사진=제주도청 제공).【제주=뉴시스】강정만 기자 = 제주특별자치도는 윈터 페스티벌, 감귤따기 체험, 한라산 설경 등을 활용한 말레시아 관광객을 유치하기 위한 전략을 마련하고 추진한다고 20일 밝혔다. 윈터 페스티벌은 12월20일부터 내년 1월6일까지 제주시 칠성로와 어리목광장 일대에서, 감귤따기 체험은 11월3일부터 12월25일까지 제주시 애월읍 항파두리 인근 농장에서 열리는 이벤트다. 도는 오는 21일 말레시아 쿠알라룸푸르, 22일 말라카, 24일 다시 쿠알라룸푸르에서 열리는 현지 여행업계와 언론을 대상으로 한 한국관광설명회시 이들 이벤트를 소개하고 관광객 유치를 꾀한다. 말레시아 관광객은 지난해 12월12일 에어아시아엑스의 취항으로 지난 9월까지 4만9000명의 관광객이 제주를 방문한 것으로 집계됐다. 이는 지난해 같은 기간에 비해 19.5%가 늘어난 수치다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>[제주도는 도박섬?①] 日관광객 3배↑, 韓카지노 10%↓…뒷짐지다 “망할 판” - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 샘 해밍턴 "아들 윌리엄, 비밀연애중"…장동민 '눈물' 왜? 코스닥 -4% 학살의 날…게임·바이오株 하락폭 키우며 폭락 주차장 '차털이' 하려던 50대, 관리인에 들키자 흉기로 찔러 中배터리 CATL, 올해 3분기까지 '작년 순익' 넘게 벌었다 "농진청 쌀 생산량 예측 능력 정확도 높여야" "미·중 '경제 전쟁'에 韓 반도체 타격"…삼전·하이닉스 파랗게 질렸다 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 샘 해밍턴 "아들 윌리엄, 비밀연애중"…장동민 '눈물' 왜? 코스닥 -4% 학살의 날…게임·바이오株 하락폭 키우며 폭락 주차장 '차털이' 하려던 50대, 관리인에 들키자 흉기로 찔러 中배터리 CATL, 올해 3분기까지 '작년 순익' 넘게 벌었다 "농진청 쌀 생산량 예측 능력 정확도 높여야" "미·중 '경제 전쟁'에 韓 반도체 타격"…삼전·하이닉스 파랗게 질렸다 제조업 스타트업이세요? 부담금 면제 일몰기한 5년 연장됩니다 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" "한전 자회사라 부실공기업?...해외 우수 자산 매각 막아야" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 [제주도는 도박섬?①] 日관광객 3배↑, 韓카지노 10%↓…뒷짐지다 “망할 판” sns공유 더보기 [제주도는 도박섬?①] 日관광객 3배↑, 韓카지노 10%↓…뒷짐지다 “망할 판” 머니투데이 제주=김고금평 기자 기자 더보기 sns공유 더보기 VIEW 12,547 2018.11.21 06:10 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 ‘국제도시’ 제주 카지노 산업 ‘위기’…부정적 인식, 육성 대신 규제, 분명한 목적 상실 등으로 경쟁력 떨어져 [편집자주] 카지노 사업은 50년 전이나 지금이나 여전히 ‘도박’으로 인식하는 경향이 높다. 사행성 산업이기에 발을 붙여선 안 된다는 분위기도 여전하다. 세계 카지노 1~3위가 미국에 있고, 지난 7월 일본이 합법화를 통해 카지노를 신 성장 산업으로 추진하는 추세와 달리, 한국은 ‘교착 상태’에 빠졌다. 소규모에서 대규모로 변화를 도모하는 복합리조트(IR) 카지노에 대한 규제를 강화하려는 움직임에 사행성 산업에 대한 부정적 인식까지 더해지면서 한국 카지노 산업에 위기가 닥친 것이다. 특히 카지노 16개(외국인 전용) 중 절반이 있는 제주는 국제 관광도시로서의 ‘개방성’과 이미지 추락을 우려한 ‘폐쇄성’이 공존하며 논란의 중심에 섰다. 강원랜드를 제외하고 내국인 출입이 금지된 한국 카지노 산업은 세계 흐름에 동참할 것인가, 딜레마 논쟁으로 정체 수순을 밟을 것인가. 2차례에 걸쳐 한국 카지노 현주소를 조명한다. 지금까지 잠잠하던 한국 카지노업을 도박이 아닌 산업으로 보자는 움직임이 거세게 나온 것은 지난 7월 일본이 카지노 리조트 신설 및 운영과 관련한 법안(통합형 리조트 시설 IR 정비추진법)을 통과시켰기 때문이다. 법안 통과에만 18년이 걸린 일본 카지노 사업법은 그 어려운 고비만큼 ‘최고’를 앞세운다. 시행령엔 카지노 투자 시 콘퍼런스 시설 수용 규모를 1만 명으로 요구하고 있어 아시아 최대 규모로 자리매김할 가능성이 크다. 일본에 카지노 복합리조트(IR)가 생기면 ‘셈법’이 복잡해진다. 일본은 연간 1000만 명 미만이던 외국인 관광객 수가 지난해 2869만 명을 기록해 3배 가까운 성장세를 보였다. 관광객이 늘면 카지노 이용객도 늘어날 수밖에 없다. 문제는 이 이용객이 한국 관광객에서 빠지는 수라는 점이다. 지난 15일 제주 라마다프라자 호텔에서 열린 ‘2018 제주 국제카지노 정책 포럼’에선 관광객 유턴에 따른 셈법 문제가 진지하게 논의됐다. 정광민 한국문화관광연구원 연구원은 “우리나라 카지노 관광객 250만 명 중 대다수가 중국과 일본의 ‘큰손’들인데, 일본 IR이 생길 경우 한국으로 오는 관광객의 유턴 현상이 불을 보듯 뻔하다”며 “여전히 소규모로 일관하는 카지노의 (대형화를 위한) 변화가 필요하다”고 강조했다. 강병희 딜로이트 컨설팅 상무도 “일본 관광객이 증가하면 우리 관광객은 상대적으로 감소하는 것이 한·일 유입 관광객의 방정식”이라며 “일본 카지노 복합리조트의 등장으로 나타나는 타격은 생각보다 크다”고 말했다. 앞서 한국카지노업관광협회가 주최한 연구용역 발표회에선 더 심각한 내용들이 나왔다. 아시아 카지노의 중심인 마카오, 싱가포르, 필리핀 관광객조차 일본으로 옮겨갈 수 있다는 전망이 그것. 한국도 예외는 아니다. 이충기 경희대 관광학과 교수는 “일본 카지노 합법화로 내외국인 총 770만명(내국인 약 760만명, 외국인 약 7만 5000명) 정도가 이탈해 연간 2조 7600억원이 일본으로 유출될 것”이라고 내다봤다. 올해 4월 현재, 국내 카지노는 17개가 운영 중이다. 내국인이 출입할 수 있는 강원랜드와 외국인 전용 카지노 16개 중 제주에만 8개가 있다. 카지노를 산업으로 인식하고 규모를 확장한 나라들과 달리, 국제도시로 인식되는 제주 카지노 영업장은 대부분 소규모다. 세계적인 흐름으로 IR이 각광받지만, 제주에는 도입 반대 목소리가 적지 않다. 카지노를 통한 높은 범죄 발생률, 한탕주의 성행 가능성, 지역정서 약화. 지역주민간 갈등 등이 이유로 지적된다. 하지만 전 세계에서 유례를 찾아보기 힘든 ‘외국인 전용’이라는 딱지 앞에 ‘범죄’나 ‘한탕주의’, ‘지역갈등’은 과도한 기우라는 것이 전문가들의 해석이다. 김상혁 가천대 관광경영학과 교수는 ‘2018 제주 국제카지노 정책 포럼’에서 “카지노를 범죄율, 도박 등으로 보는 부정적 인식은 막연한 두려움이며 이는 오픈카지노(내외국인 모두 출입)에 한정될 뿐”이라며 “카지노산업영향평가는 객관적 지표를 통해 지역민과 업계가 모두 믿을 수 있는, 외국인전용카지노에 맞는 평가가 만들어져야 한다”고 설명했다. 정철 한양대 관광학부 교수는 “카지노 사업은 규모를 확장하자는 입장과 규제를 강화하는 입장이 대립하는 분야”라며 “제주의 경우 카지노 적자가 계속되는 데다, 외국인전용카지노여서 규모 확장을 통한 경쟁력을 갖추는 것이 필요하다”고 역설했다. 지난 15~16일 제주 라마다프라자 호텔에서 열린 '2018 제주 국제카지노정책포럼'. /제주=김고금평 기자 경제적 관점에서 카지노의 외화획득률은 다른 산업에 비해 월등히 높다. 자동차(71%), 휴대전화(52%), 반도체(43%) 등과 비교하면 카지노는 93.7%다. 외국에 반도체 1000달러어치 팔아 얻는 외화는 430달러에 불과하지만, 카지노는 이 중 937달러를 벌어들인다는 의미다. 여기에 카지노 이용객은 숙박 및 레스토랑 지출 비용이 높아 부가 이득에도 유리하다. 한국카지노업관광협회에 따르면 2017년 국내 카지노 시장 규모는 약 2조 6822억원으로 2016년 2조 9044억원 대비 약 7.7% 감소했다. 이중 외국인 전용 카지노의 2017년 매출은 약 1조 1592억원으로 전년 대비 9.2% 감소를 보였다. 외국인 전용 카지노의 매출 하락세가 갈수록 심화하는데도, 정부와 지자체는 육성이 아닌 규제 대상으로만 본다는 것이 관계자들의 공통된 전언이다. 특히 제주특별법 및 관광진흥법의 카지노업 관련 내용은 해외 오픈카지노 수준의 높은 규제로 묶여있다. 주요 규제 내용으로는 △카지노업 허가 유효기간을 5년으로 하는 허가갱신제 도입 △카지노 전문모집인 등록제 도입 △관광진흥기금 징수비율 상향(10%→20%) 등 제주특별법 6단계 제도개선안이다. 경제적 위기가 닥치자 싱가포르는 2005년 총리 주재로 카지노복합리조트 도입을 추진했다. 마이스(MICE, 국제회의와 전시회를 주축으로 한 유망 산업)를 세계적 수준으로 끌어올리겠다는 분명한 목적성과 지역 주민과의 대타협으로 일궈 낸 결과는 성공적이었다. 지난해 카지노 고객별 매출에서 VIP 마켓 매출이 18억 3400만 달러(약 2조 735억원)로 나타나 전년 대비 30.6% 성장률을 기록했다. 사진은 싱가포르 마리나베이샌즈 카지노. 관계자들은 이 제도들이 현실과 동떨어졌다고 입을 모은다. 우선 유효기간 5년은 주요 국가 카지노(마카오 20년, 싱가포르 10년)와 사업 연속성 측면에서 맞지 않는다고 주장한다. 관광진흥기금 20% 상향 조정 역시 경영적자 여부와 관계없이 매출액 대비로 기금을 부과해 이익 발생을 전제로 내는 경마와 경륜 영역과도 다르다는 것이다. 경제적 위기가 닥쳤던 싱가포르는 2005년 총리 주재로 카지노와 리조트를 결합한 IR도입을 적극 추진했다. 지역 주민의 반대도 거셌지만 마이스(MICE, 국제회의와 전시회를 주축으로 한 유망 산업)를 세계적 수준으로 끌어올리겠다는 분명한 목적성을 갖고 대타협을 이뤘다. 결과는 대성공이었다. 지난해 카지노 고객별 매출에서 VIP 마켓 매출이 18억 3400만 달러(약 2조 735억원)로 나타나 전년 대비 30.6% 성장률을 기록했다. 관광객도 덩달아 증가해 지난해 외국인 관광객 수는 1742만 2990명으로, 전년 대비 6.2% 증가했다. 싱가포르 관광청(STB)이 관광 지출과 방문객 수를 관측한 이래 2번째 높은 수치였다. 인천 카지노복합리조트(왼쪽)과 제주 신화월드 랜딩카지노. 이날 포럼에 패널로 참석한 송우석 제주신화월드 랜딩카지노 대표는 “2014년 IR 개발 단계부터 고용창출, 경제적 노력 등을 시도했지만, 순기능을 제대로 보여주지 못한 아쉬움이 남는다”며 “이 산업에 대한 홍보에 더 많은 노력과 진정성 있는 행동으로 상생하는 모습을 보여주겠다”고 말했다. 제주 카지노의 대형화 과정에서 IR이 주는 긍정적 효과 외에 위기관리 대처에도 능숙함이 요구된다는 설명이었다. 오는 2024년 개장하는 일본 복합카지노리조트의 거센 위협에 6년 정도의 시간이 남았지만, 관계자들은 외국인전용카지노에 대한 적절한 규제, 대형화로 변화 모색, 부정적 인식에 대한 공론화 과정, 산업 비전에 대한 공감대 등을 통해 시장 경쟁력을 갖춰야 한다고 목소리를 높였다. 홍성화 제주대 관광경영학과 교수는 “지금 제주도 카지노 산업은 저비용항공사의 제주 노선 감소, 일본 관광객 증가, 북한관광 재개로 인한 관광객 감소 등으로 위기를 겪고 있다”며 “대타협을 이뤄낸 싱가포르처럼 규제나 공론화 과정을 통해 ‘우리는 무엇을 얻을 것인가’에 대한 분명한 목적을 갖고 산업을 육성해야 한다”고 강조했다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% 김고금평 danny@mt.co.kr 사는 대로 생각하지 않고, 생각하는 대로 산다 기자의 다른기사 "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 채권시장 전문가들이 오는 12일 열리는 금융통화위원회(금통위)에서 한국은행이 기준금리를 0.5%p(포인트) 올리는 이른바 "빅스텝"을 단행할 것으로 내다보는 것으로 나타났다. 한은이 빅스텝 인상에 나선다면 지난 7월 금통위에 이어 역대 두 번째다. 빅스텝이 현실화되면 국내 기준금리는 현행 연 2.5%에서 3.0%로 오른다.7일 머니투데이가 증권사 애널리스트 10명을 대상으로 조사한 결과, 10명 모두 한은이 오는 12일 기준금리를 0.5%p 올릴 것으로 예상했다. 금통위 내에서 "0.25%p 인상"으로 소수의견이 있을 것이란 답변은... 코스피 -2%, 코스닥 -3%…"언제까지 내려가" 개미들 울상 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 연준 "4.5% 위에서 금리 인상 중단"…경기 둔화 위험 언급 단독 맞춤 패키지로 K원전 수출한다 "빚내 집사라"던 9년 전처럼…얼어붙은 부동산 매수심리 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "밀크티 싸다 기뻐했죠? 우유없다" 中폭로남 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 생활문화 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 '화물차 음주 사고' 재판받던 중 또 무면허 음주운전…'감형'받은 이유 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 이전 다음 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 부산 빛낸 김유정, '8100만원대' 초호화 드레스 룩…어디 거? 베트남 "'작은 아씨들' 방영 중단해달라"…바로 삭제한 넷플릭스, 왜 韓日 하늘길 열리자 '카지노'도 들썩..실적 반등 기대에 재개장↑ "주얼리만 3.2억?" 블랙핑크 지수, 아찔한 초미니 패션…어디 거 블랙핑크 제니 vs 모델, 클래식한 패션…같은 옷 다른 느낌 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 '91세' 이런 몸 가능?…기네스북 최고령 美모델 파격 화보 [영상] 맨몸의 모델에 스프레이 뿌리니…화려한 의상 등장 '반전' [내일 날씨] 연휴 마지막 비·바람에 체감온도 '뚝'…서울 최저 9도 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 "농진청 쌀 생산량 예측 능력 정확도 높여야" 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 생활문화 마켓 '노벨상 특수' 서점가 활기…아니 에르노 소설 인기 국립현대무용단 '작꾸 둥굴구 서뚜르게', '스텝업' 무대에 K콘텐츠 유럽 판로 확대..'2022 K-콘텐츠 엑스포' 개최 '미지의 땅' 사우디아라비아로 '도슨트 투어' 떠나볼까 [오늘 날씨] 전국 산발적 비·돌풍에 체감온도 뚝…서울 최저 9도 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 JW생명과학, 국내 첫 전용량 종합영양수액제 자동화 라인 가동 SK이노베이션, 이익 개선 방향은 여전-NH투자증권 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 박수홍, 父 폭행 후 속병 고백…"약물 치료, 아내와 같이 욕한다" 츄, 오은영 충격 진단→단톡방 왕따 논란…"콘서트 공지 못받아" 박수홍 인터넷뱅킹 ID '조카 이름+생일'…"父 횡령 말도 안된다" 공감 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 비공감 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 '사별' 엄앵란, 5살 연하 의사와 '썸' 타나…"10년간 매주 만나" 선넘은 해킹범…'뷔♥' 제니, 욕실서 찍은 셀카까지 유출 내가 알던 안성기 맞아?…확 달라진 모습에 '건강 이상' 우려까지 공감 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 비공감 [기자수첩] 판교에 나타난 '피해 호소인' '쇼미' 출신 래퍼, 다이빙 사고로 전신마비…"대소변도 혼자 못봐" '故안재환과 사별' 정선희 "나 정도면 미혼…문란하게 살고파" 고명환, 교통사고로 시한부 판정→"연매출 13억원" 사업가 변신 공감 이효리·이상순 저격한 전여옥 "재벌 못지 않다…꼭 카페 해야하나" 비공감 조형기는 어디에…방송 퇴출→유튜브마저 중단 후 소식 끊겨 정선희 "장례 치르는데 김건모 오빠가 김영철 쫓아냈다"… 왜? 조형기는 어디에…방송 퇴출→유튜브마저 중단 후 소식 끊겨 '故안재환과 사별' 정선희 "나 정도면 미혼…문란하게 살고파" 공감 김연아, 예비 시아버지 '정치성향'도 시끌…무슨 활동했길래 비공감 정유라 6년만의 근황 "깡으로 버텼다…조민이 불쌍하다니" 눈물 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 신화 신혜성, 음주측정 거부 혐의 체포..차량 도난 의심 '충격'[공식] MoneyS 14년 만에 대우조선 품는 한화, '한국의 록히드마틴' 정조준 IZE 도경수는 '진정' 믿고 볼 만해! the300 핵에는 핵, 30년만 '전술핵 재배치' 가능성…총력 대응 나선다 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 15 '주먹 쥔 파퀴아오' 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 45 화려한 'TMA 레드카펫' 20 부산국제영화제 찾은 이지은 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 9 김유정 'BIFF 반가워요' 28 '아시아 스타 어워즈' ★들의 잔치 '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 우수관광사업체 5개 분야 대상 공모지정 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도, 하반기 우수관광사업체 5개 분야 대상 공모지정 등록 2018.11.05 10:03:04 작게 크게 제주 마크.【제주=뉴시스】강정만 기자 = 제주특별자치도는 올 하반기 우수관광사업체를 공모를 통해 지정한다고 5일 밝혔다. 도는 이에 따라 제주도에 본점을 두고 있고 영업신고(리모델링) 후 1년 이상 경과한 관광지, 교통, 숙박업, 여행업, 음식업 5개 분야 사업체를 대상으로 오는 12일까지 공모한다. 도는 공모접수 후 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거쳐 지정할 방침이다. 지정기간은 내년 1월1일부터 2020년 12월31일까지 2년간이다. 우수관광업체로 지정되면 우수관광사업체 지정서와 인증패가 주어지고, 홍보지원금 70만원이 지급된다.  도 관광정보시스템과 유관기관 홈페이지 등 SNS, 리플릿, 지도 등 홍보물을 통한 인센티브 혜택도 주어진다. 지금까지 총 99곳이 우수관광사업체로 지정됐다. kjm@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 피플인사이드 "화려한 무대 밖에선 저도 불안한 사람" 싱어송라이터 앤 마리 "BTS의 협업 제안?&amp;nbsp처음엔 못 믿었다" 라우브 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 5서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 의성군, 마늘흑색썩음균핵병 특효미생물 대량 배양 성공 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 2022~2023시즌 프로농구 타이틀스폰서에 SK텔레콤 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 6軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 710월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>"제주도, 이젠 '바닷속 경치'도 관광자원화한다" &lt; 포토 &lt; 친환경 식탁 &lt; 제로웨이스트 &lt; 기사본문 - 그린포스트코리아 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 2022-10-11 11:31 (화) 로그인 회원가입 그린 리포트 환경 트렌드 친절한 에코 기자체험 제로웨이스트 플라스틱 일회용품 친환경 식탁 ESG 지속가능기업 친환경 CEO 산업 환경 리뷰 녹색경제 지속가능경제 환경정책 친환경 신기술 기후위기 물과 바다 날씨와 하늘 자원순환 탄소중립 에너지 미래차 4차산업 오피니언 인터뷰 기자의 눈 칼럼 전체 검색 기사검색 검색 EDITOR'S PICK2022.10.11. 지속가능기업 하이트진로, ‘하이트진로 챔피언십’ 선수들과 나눔활동 지속가능기업 현대차, 미술展으로 기후변화 위험성 알린다 지속가능기업 세븐일레븐, 친환경 전기차 110대 추가 보급 지속가능기업 LG, 故 현은경 간호사에게 ‘LG 의인상’ 수여 지속가능경제 ESG 경영 실천…카드업계, '친환경 상품·혜택' 봇물 친환경 CEO 손태승 회장, 글로벌 ESG 협력 위해 유럽行 산업 환경 리뷰 美 IRA 여파, 우려 단계는 아니지만 대응 마련 필요해 환경정책 [창간 10주년] 13년 전 유럽에서 본 친환경·ESG 환경 트렌드 [오늘부터 탄소중립] ‘아나바다’를 아시나요 미분류 [부고] 장영순(현대이지웰·현대드림투어 대표이사)씨 모친상 본문영역 이전 기사보기 다음 기사보기 "제주도, 이젠 '바닷속 경치'도 관광자원화한다" 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 제로웨이스트 친환경 식탁 포토 "제주도, 이젠 '바닷속 경치'도 관광자원화한다" 기자명 고현준 기자 입력 2018.11.06 16:55 수정 2018.11.06 17:53 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 서귀포 문섬 일대, 국내 최초 '해중경관지구' 선정 [그린포스트코리아 제주=고현준 기자] 제주 서귀포시 문섬 일대가 해중경관지구로 지정됐다.제주도는 2018년 해양수산부가 국내 최초로 시행한 ‘해중경관지구 지정 및 시범 공모사업’에 문섬 일대가 최종 선정됐다고 6일 밝혔다.‘해중경관지구 지정 및 시범사업’은 해중경관이 우수하고 생태계가 훌륭하게 보전된 해역을 지구로 지정해 해중경관 보호 및 해양레저 관광 활성화를 위해 450억원(국비 225억운, 지방비 225억원)을 투자해 추진한다.해양수산부는 지난 6월 전국 연안권 11개 지자체를 대상으로 공모를 실시해 해중경관 및 사업계획 등에 대한 대면평가, 수중실사, 지역구성원 면담 등 종합적으로 평가해 제주와 강원 고성군 2개 지자체를 사업지로 최종 선정했다. 해수부는 내년에 사업타당성 용역을 실시한 뒤 2020~2022년 해양레저 스포츠 종합지원센터 건립, 수중경관 전망 등 해양관광 인프라를 조성할 계획이다. 김창선 제주도 해양수산국장은 “해양레저활동 인구가 급증하는 가운데 우리 도가 해양레저관광 인프라를 조성하게 돼 기쁘다”며 “주민과 함께하는 해양레저관광 산업 육성을 통해 지역경제 활성화 및 일자리 창출에 기여하겠다”고 말했다. kohj007@naver.com 고현준 기자 kohj007@naver.com 다른기사 보기 저작권자 © 그린포스트코리아 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 ESG 실천사례 하이트진로, ‘하이트진로 챔피언십’ 선수들과 나눔활동 현대차, 미술展으로 기후변화 위험성 알린다 세븐일레븐, 친환경 전기차 110대 추가 보급 LG, 故 현은경 간호사에게 ‘LG 의인상’ 수여 탄소중립 &amp; 녹색금융 ESG 경영 실천…카드업계, '친환경 상품·혜택' 봇물 [창간 10주년] 13년 전 유럽에서 본 친환경·ESG 윤호영 카카오뱅크 대표 "자사주 매입·소각…주주환원 정책 적극 검토" 글로벌 에너지 위기에도 국내 에너지 수입·소비 증가 은행권 하반기 채용 키워드 ‘ESG’…사회적 동반성장 제고 제로웨이스트 [지속가능한 식탁] 지구 살리는 질문 ‘무엇을 먹나’ [NO-플라스틱] 탈플라스틱하는 4가지 방법 그래픽&amp;카드뉴스 [창간 10주년] 키워드로 읽는 기후위기와 탄소중립 [그래픽] MZ세대 ESG에 관심 있을까? [카드뉴스] 가뭄에도 하루에 물 1천톤 쓰는 곳 있다? [그래픽] MZ세대는 여행도 '친환경'으로 한다 친절한 에코 [e-BOOK] ESG 경영 판도 바뀐다 [1분 환경] ‘세계 채식인의 날’ 보는 채식과 지구의 관계 [1분 환경] 제로웨이스트 관심 있으면 ‘지구학교’ 가세요 하단영역 하단메뉴 매체소개 윤리강령 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울 마포구 동교로23길 36 3층(리앤리 빌딩) 그린포스트코리아 등록번호 : 서울 아 01918 등록일 : 2012-01-10 발행인 : 김기정 편집인 : 이용택 대표전화 : 02-525-8878 팩스 : 02-525-8848 Copyright © 2022 그린포스트코리아. All rights reserved. 위로 전체메뉴 전체기사 그린 리포트 전체 환경 트렌드 친절한 에코 기자체험 제로웨이스트 전체 플라스틱 일회용품 친환경 식탁 ESG 전체 지속가능기업 친환경 CEO 산업 환경 리뷰 녹색경제 전체 지속가능경제 환경정책 친환경 신기술 기후위기 전체 물과 바다 날씨와 하늘 자원순환 탄소중립 전체 에너지 미래차 4차산업 오피니언 전체 인터뷰 기자의 눈 칼럼 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>원투씨엠-티그, 제주도 관광객에게 공유자전거 사업 한다 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 11일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 특징주 디지털화폐 이재명 테슬라 G6 e 경제 로봇 이데일리 단독 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 팜이데일리 마켓in 스냅타임 원투씨엠-티그, 제주도 관광객에게 공유자전거 사업 한다 스마트 스탬프와 제주도 공유자전거 연계공유자전거 이용객 대상, 쿠폰 및 지역관광패스 혜택제공 등록 2018-11-10 오전 8:54:51 수정 2018-11-10 오전 8:54:51 가 가 김현아 기자 기자구독 페이스북 트위터 메일 프린트 스크랩 url복사 [이데일리 김현아 기자]원투씨엠의 박근영 이사와 티그 이태현 대표가 업무협약을 체결하고 기념촬영 하고 있다.원투씨엠의 에코스 스템프(echoss Stamp)스마트 스탬프 원천기술 개발 기업인 원투씨엠(대표 한정균)이 티그(대표 이태현)와 제주도 지역 공유자전거 사업 참여를 위한 양사간 업무협약을 체결했다.제주도 공유자전거 이용객을 대상으로 이동경로 주변 관광지에 대한 각종 할인 입장권 및 쿠폰 등의 정보가 함께 제공된다. 원투씨엠은 이들 관광객들에게 자사의 스마트 스탬프 기술과 모바일을 통한 쿠폰사업 경험을 접목해 지역 내 방문고객 멤버십 적립서비스 및 할인 입장권, 식음료 쿠폰 등 판매서비스 영역의 역할을 한다. 제주도를 총 6개의 권역으로 나누고 이곳에 다양한 성격을 가지는 자전거 스테이션을 운영하여, 단계별로 사용자 접근성 및 편의성을 함께 높여갈 계획이다.200여개의 특허로 보호받고 있는 원투씨엠의 스마트 스탬프(제품명: 에코스 스탬프) 기술은 국내 지역관광패스, 전국의 지역축제패스 등과 함께 사용되고 있을 뿐만 아니라, 지역경제활성화를 위해 원투씨엠이 출시하고 일본 시마도쿠 지역에서 사용중인 전자화폐의 유통에 있어서도 함께 활용되고 있다.본 사업에 이용되는 자전거는, GPS 및 LTE-M통신망이 적용된 최신의 스마트락 기술을 사용하는 전기 자전거다.관광 산업적 측면에서도 기존의 공유자전거와는 달리 사물인터넷(IoT) 기반 위치 데이터 확보가 가능해 운영의 효율성을 높이고 관광객 데이터를 기반으로 향후 관광자원을 보다 효율적으로 개발가능하다. 주요뉴스 "내 노후 어쩌나" 국민연금 상반기 적자 76조 6600억 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 선우은숙, 4살 연하 유영재 아나운서와 재혼 혼인신고 마쳐 [공식] 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 실시간급상승 뉴스 1전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2[누구집]남궁민 7년 열애끝 웨딩마치, 신혼집은? 3선우은숙, 4살 연하 유영재 아나운서와 재혼 "혼인신고 마쳐" [공식] 4“혜민스님, 따가운 시선에 상처받아”… ‘풀소유’ 논란 2년만에 포착 53선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 카드뉴스[카드뉴스] 2022년 10월 11일 오늘의 운세 오늘의포토 왼쪽 오른쪽 [포토]'파퀴아오와 대결' DK YOO "기부 경기지만 진짜로 싸우겠다" [포토]깊어가는 가을을 즐기세요! [포토]'국정감사 출석하는 최재해 감사원장' [포토]간담회에서 발언하는 김현숙 여가부 장관 [포토]오세훈 시장, 2022 서울워크에서 청년들과 '토크 콘서트' [포토]대체공휴일에 열린 집회 [포토]건강한마당, 댄스 배우는 시민들 [포토]쌀쌀해진 날씨, 겨울옷 입은 나무들 [포토]상춘객 유혹하는 하얀 코스모스 [포토]금리인상에 '영끌'은 옛말...2030 서울 아파트 매입 비중 '뚝' 소셜 댓글by LiveRe 많이 본 뉴스 뉴스 증권 연예 1 전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2 “혜민스님, 따가운 시선에 상처받아”… ‘풀소유’ 논란 2년만에 포착 3 그녀의 비밀계약… 90년대 ‘강남 큰손’ 조춘자의 거짓말이었다 4 3선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 5 '월급 500만원' 아이엠 택시기사 "콜·예약 시스템으로 수익 다변화" 6 대통령 직접 방문했지만…국공립 어린이집 예산 19% 삭감 7 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 8 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 9 송가인, 목포콘서트→팬미팅 '바쁘다 바빠' 10 '음주측정 거부 체포' 신혜성 "변명의 여지 없다..죄송" 1 삼성전자마저…코스피, 3분기 실적 대참사 시작되나 2 "금리 급등하는 지금이 적기" vs "섣불리 덤볐다가 큰코다쳐" 3 스팩합병 전성시대…역대급 흥행에 덩치 커진다 4 글로벌 기업들 ESG 속도 내는데 G에 발묶인 한국 5 KPMG, '아시아 최우수 리스크 컨설팅펌' 선정 6 [미리보는 이데일리 신문] 수리남 제작사도 참패…고금리에 기업 돈줄 마른다 7 상장사 10곳 중 1곳 주가 1년새 '반토막' 8 [뉴스새벽배송]월가 황제 “S&amp;P 3000선 붕괴”…미 증시 또 약세 9 美 CFA협회 "ESG 자격증 도입, 韓 거버넌스 개선 기대" 10 HLB생활건강 "새치 커버 샴푸에 논란중인 염모제 성분 없어" 1 선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" 2 임창정·서하얀, 고급 빌라서 아파트로… "이사만 7번째" 3 [e갤러리] '헝가리식' 우연이 만든 주름…시몬 한타이 '수채화' 4 '역설의 장미'…장밋빛에도 저마다 사연이 있다 [e갤러리] 5 '작은 아씨들' 김고은, 10월 배우 브랜드 평판 1위 6 '아바드림' 오승근, 故 김자옥과 생사초월 듀엣 감동 7 '얼죽연' 최시원, 장난→진중 퍼펙트 남사친 열연…역시 '로코' 장인 8 '미우새' 김준호, 조기 퇴근 걸고 처절한 몸부림 '폭소' 9 '고딩엄빠2' 19세 엄마 김가연, 4세 딸 발달 장애 검사 결과에 '오열' 10 '삼식이 삼촌' 송강호→변요한·이규형·서현우 캐스팅 라인업 완성 [공식] 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 알지노믹스, 간암 치료제 美FDA 임상시험계획 승인 퓨쳐켐, 전립선암 치료제 'FC705' 멕시코 특허 취득 에이비엘바이오, 암 단백질 'B7-H3' 타깃 단독항체 일본 특허 취득 지씨씨엘 "당화혈색소측정 'NGSP' 최고 레벨 획득" 코아스템 “자사 루게릭병 치료제, 대조군比 생존기간 5.6년 길어”...FDA 통과 ‘청신호’ 스무살의 설레임 스냅타임 왼쪽 오른쪽 유튜브 고유 아이디 ‘핸들’ 기능 추가...이름쟁탈전 벌어질까 2022년 10월 11일 오늘의 운세 2022년 10월 10일 오늘의 운세 경기도, 도민과 함께 576돌 ‘한글아 놀자’ 행사 ‘고딩엄빠’는 환상, 이 잔인한 통계를 보라 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 이제부터가 진짜 하락장이다 JW중외제약, 1500억 혈우병 치료제 시장 통째로 삼킨다 아름다운 빛으로 풀어낸 정조의 꿈 수원, 정조의 발자취를 따라서 1기 신도시 마스터플랜이 뭐길래 두근두근 핫포토 우승 가자! 北 전술핵운용부대 '드레스를 조심해' "어이가 없네" 왼쪽 오른쪽 당신의 드림카는?ㅣ오토in 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 나이스 샤아앗~ㅣ골프in [포토]박민지 '시즌 5승 만들어준 볼입니다' 왼쪽 오른쪽 이슈기획 ㅣ 2022 국정감사 "비위판사 연금 깎겠다던 법원, 여론 잦아들자 '도입 불가'"[2022국감] 이슈기획 ㅣ 금리 인상 여파 "한은 금통위, 10월 이어 11월도 빅스텝 나설 듯" 이슈기획 ㅣ 집값, 폭락 vs 그래도 상승? 수억씩 `뚝뚝`…부동산 한파에 뉴타운도 ‘악’ 소리 이슈기획 ㅣ 尹 대통령 비속어 파문 尹대통령 “그냥 먹어도 되나?”… 김남국 “큰형님 마냥 습관적 반말” 이슈기획 ㅣ 신당역 역무원 피살 사건 '신당역 스토킹 살인' 전주환, 오는 18일 재판절차 시작 오늘의 주요 기사 월가 황제 "고통 속 S&amp;P 3000선 붕괴"…바닥 안 보인다 "내 노후 어쩌나" 국민연금 적자 '76조 6600억' 정진석 “조선은 썩어서 망해”…野 “친일 앞잡이, 천박” 맹비난 .국감 취재하던 기자, 화장실서 심정지로 쓰러져…병원 이송 .선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" .쇼핑몰 대박 난 강민경, '65억 건물' 매입해 신사옥 입주 ."尹, 한동훈 애정어린 눈으로"...'이재명 대북코인' 부메랑? .상폐 심판대 선 신라젠..16만 개미 눈물 닦을까 .코레일, GTX 개통 시 연간 1000억원 손해…재무건전성 ‘빨간등’ 알립니다 2022년 하반기 경력기자 모집 제9회 이데일리 사진공모전 당선작 안내 이데일리 주식회사 제22기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - 한국조선해양, 연료전지 대형선박 실증 나선다 - 한국조선해양, 오세아니아 지역서 LNG선 3486억원에 수주 - 현대삼호중공업 LNGC 1척 수주…계약금액 3468억원 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 겨울철 관광객 수요 확보 박차 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 겨울철 관광객 수요 확보 박차 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 겨울철 관광객 수요 확보 박차 기자명 문서현 기자 입력 2018.11.15 16:28 수정 2018.11.15 16:35 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 15~18일, 일산 킨텍스서 개최되는 '메가쇼 2918 시즌2' 참가 제주도관광협회가 겨울철 관광객 수요 확보를 위한 본격적인 행보에 나섰다.제주도와 제주도관광협회(수도권제주관광홍보사무소)는 15~18일, 일산 킨텍스 제2전시장에서 개최되는 '메가쇼 2018 시즌2'에 참가해 현장 밀착형 마케팅을 추진하고 있다 15일 밝혔다.라이프스타일 전반을 취급하는 이번 메가쇼는 서울산업진흥원이 후원하며, 600여개 업체 1000여개 부스, 8만여명의 관람객이 방문할 것으로 예상된다.제주관광 홍보관에서는 세계자연유산, 4.3 70주년 2018 제주 방문의 해, 제주여행 종합오픈마켓 탐나오(www.tamnao.com) 및 제주시티투어 등 다양한 제주의 관광브랜드를 홍보했다.이날 나만의 머그컵 만들기 등 체험 이벤트도 진행해 관람객들의 많은 관심을 집중시켰다.또한 제21회 제주특별자치도 관광기념품 공모전 당선작 중 11개 업체가 직접 참여해 판매 홍보 및 B2B 상담회를 통해 상품개발 촉진, 판로개척 등 제주관광기념품 고부가가치화를 위해 적극 지원하고 있다. 문서현 기자 start-to@hanmail.net 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 12:33 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도·관광공사, 대만 크루즈 시장 공략 나서 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 관광 제주도·관광공사, 대만 크루즈 시장 공략 나서 홍석준 기자 승인 2018.11.09 11:43 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 지난 8일 대만 타이베이국제무역센터에서 크루즈관광설명회 개최 지난 8일 대만 타이베이국제무역센터에서 열린 제주크루즈관광설명회 모습. /사진=제주관광공사 [미디어제주 홍석준 기자] 제주도가 크루즈 시장을 다변화하기 위해 대만 크루즈 시장 공략에 나섰다. 제주특별자치도와 제주관광공사는 지난 8일 도내 관련 업체들과 공동으로 대만 타이베이국제무역센터에서 제주크루즈관광설명회를 개최했다. 설명회에는 현지 크루즈선사와 여행사 관계자 50여명이 참석했다. 프린세스크루즈, 스타크루즈 등 대만 크루즈 선사와 대표 여행사가 참석한 이번 설명회에서는 제주의 크루즈 인프라와 체험, 제주 고유문화 위주의 기항지 관광상품 콘텐츠를 소개, 향후 제주 기항에 따른 관광상품을 구성하는 데 실질적인 도움이 될 수 있도록 했다. 선사 대리점, 여행사, 관광지, 공연기획사 등 도내 업계와 현지 업체간 B2B 비즈니스 미팅이 진행되기도 했다. 대만국제크루즈협회 임박종 부이사장은 “최근 대만 크루즈 관광객들이 새로운 관광 노선에 대한 요구가 증가하고 있다”면서 “많은 선사들이 제주 기항을 검토하고 있어 이번 행사를 계기로 더 많은 크루즈가 제주로 기항할 수 있기를 바란다”고 말했다. 한편 이번 설명회에서는 지난 8월 열린 제6회 제주국제크루즈포럼에서 제주-대만(기륭)-일본(오키나와) 간 새로운 크루즈 운항 노선을 개설하기 위한 협력 프로젝트 협약 체결에 따른 후속 조치로 3자간 이행 방안을 협의하기 위한 실무회의가 진행되기도 했다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 6&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>[전문] 제주도의회 예산안 심사 입장-이경용 문화관광체육위원장 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 [전문] 제주도의회 예산안 심사 입장-이경용 문화관광체육위원장 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 도의회 [전문] 제주도의회 예산안 심사 입장-이경용 문화관광체육위원장 편집팀 iheadline@hanmail.net 승인 2018.11.22 09:53 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 문화관광분야의 선심성·관행·퍼주기 예산 철저히 검증하겠다!!내년도 예산편성의 기조가‘미래·청정제주’입니다. 제주의 미래투자를 위한 예산편성 기조에 맞게 문화관광예산이 제대로 편성되었는지 선심성, 관행, 퍼주기 예산여부를 철저히 검증하겠습니다. 도 예산이 전년도보다 6.4% 증가된 5조 3,524억원을 넘어서고 있는 가운데, 문화예술 예산비중의 3%대 유지, 관광산업의 질적성장 강화를 위해 관광진흥기금 예산을 집중 편성하고 있습니다. 도내 곳곳 문화인프라 확충에 문화예산이 집중된 만큼 도민들의 생활문화 활성화와 읍면동 문화격차를 해소하여 제주형 문화분권의 생태계가 조성될 수 있는 지 꼼꼼히 들여다 볼 것입니다. 특히 관광분야 예산이 관광진흥기금으로 집중 편성되고 있는 만큼 기금 조성과 지출이 낭비됨이 없는지 살펴보겠습니다. 제주관광의 침체위기 극복 위한 관광사업체의 회생, 제주관광 질적성장의 내실화는 물론 관광유관기관 사업예산의 중복성 여부도 따져 기관 몸집 불리기가 아닌 시너지 효과를 창출하고 자립화를 강화할 수 있는 방향으로 예산심의가 진행될 것입니다. 문화관광예산의 선심성․낭비성 경비, 집행률 저조사업의 편성 관행, 효과검증 없는 퍼주기 예산 여부를 꼼꼼히 따져 지방재정의 건전성과 효율성 확보에 중점을 두고 보다 철저하고 엄격하게 예산심의를 해 나가겠습니다. 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 편집팀 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 중문 맛집 ‘갈치왕’, 중문관광단지 갈치요리 전문식당 주목 &lt; 사회 &lt; 뉴스 &lt; 기사본문 - 부산제일경제 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집:2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 PDF 보기 전체메뉴 버튼 뉴스 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 정책 분양/건설 해양수산 일반 수산물 항만 해운 교육 교육일반 초/중/고/학원 대학 문화 문화일반 전시/공연 마을활동가 기획/연재 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 파워피플100 스타기업100 전체기사 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 중문 맛집 ‘갈치왕’, 중문관광단지 갈치요리 전문식당 주목 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 사회 제주도 중문 맛집 ‘갈치왕’, 중문관광단지 갈치요리 전문식당 주목 기자명 이수호 기자 승인 2018.11.09 16:57 댓글 0 조회수 : 7090 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 답답한 도심을 벗어나 제주도의 바다와 아름다운 경관을 보기 위해 여행객들이 붐비고 있다. 겨울의 문턱 앞에 놓인 제주도는 쾌청한 바람, 올레길, 둘레길, 막바지 단풍 등 여러 가지 매력적인 요소를 가지고 국내외 여행객들에게 매력을 선보이고 있다. 제주도의 많은 관광명소 중 중문관광단지는 단연 으뜸이다. 이곳은 바다 주변에 인접하고 있어 프리미엄급 숙소가 많이 위치하고 있으며, 맛집과 카페들이 즐비해 제주도를 여행하는 여행객들이 필수적으로 방문하는 곳이다. 또한 많은 관광객들이 중문을 찾는 이유는 독특하고 맛있는 제주도만의 신선한 해물요리가 가득하기 때문이다. 그 중 제주 서귀포 상예동에 위치한 ‘제주 갈치왕’은 100% 제주도산 갈치를 사용하는 갈치요리 전문식당으로, 제주 현지인들에게도 가장 인기 있는 갈치구이, 갈치조림 맛집이다. 중문에 위치한 여러 호텔에서 차로 5분 거리에 위치하고 있어, 접근이 매우 쉬우며, 최대 60명이 동시에 식사가 가능한 식당이다. ‘갈치왕’은 신선한 식재료와 특제 양념을 어우러지게 요리하고 있으며, 저렴한 세트가 구성되어 있어, “여행객들에게 맛있는 갈치를 부담 없이 제공하기위해 최선을 다한다.”고 전했다. 또한 “갈치구이 모둠세트는 2인 75,000원, 3인 85,000원, 4인 95,000원이며, 주문 시 갈치회, 전복버터구이, 옥돔구이, 고등어구이, 전복뚝배기, 갈치조림 등 “어디서도 맛볼 수 없는 메뉴를 동시에 제공한다.”며 덧붙였다. 앞에도 이야기 한 것과 같이 ‘갈치왕’의 장점은 신선한 제주산 갈치이다. 식당에서 사용되는 모든 갈치는 당일 한림항 서귀포 항에서 직접 경매한 생선을 사용한다. 아울러 제주 중문 맛집 갈치왕은 제주 대표맛집, 제주 중문맛집이라는 타이틀에 유지하기 위해 최선을 다해 노력하겠다고 밝혔다. 한편 제주 갈치왕은 매일 오전 10시 30분부터 오후 9시까지 연중무휴이다. 단체 예약 시 사전예약이 필수이다. 또한 음주사고 예방을 위해 중문 관광단지 내 숙소까지 이동서비스도 제공한다. ‘갈치왕’은 제주 서귀포시 상예동 1719-1에 위치하고 있으며, 메뉴와 단체예약 문의는 대표전화를 통해 확인이 가능하다. 이수호 기자 goodnights1@busaneconomy.com 이수호 기자 goodnights1@busaneconomy.com 다른기사 보기 저작권자 © 부산제일경제 무단전재 및 재배포 금지 당신만 안 본 뉴스 [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' [2022 부산 월드뷰티 EXPO] MZ세대가 이끄는 '뷰티산업의 메카 부산' 부활의 신호탄 알려 CNC머신 국내 1위 디엔솔루션즈, 부산대와 산학협력 부울경 첫 민간 액셀러레이팅 프로그램 ‘시리즈스트롱’ 모집 8월 부산 산업 생산, 전년比 19.7% 증가 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 “사교육비 없애자… 금융인재 양성해 부산을 국제금융도시로” [2022 부산 월드뷰티 EXPO] 부산 벡스코서 화려한 개막… 참여는 '저조' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 엑스포추진본부·금융창업정책관 신설… 부산, 새 시정 기틀 마련 부산 기업 대다수 오픈이노베이션 도입 관심 없어 부산시의회 출범 100일…‘일 잘하는 의회’로 기업이 늙고 있다…업력 높을수록 대표자 나이도 많아 부산원아시아페스티벌 케이팝 콘서트 최종 출연진 공개 롯데팬 두 번 울리는 ‘조선의 4번 타자 이대호 은퇴식’ 입장권 암표거래 인기뉴스 1 캠코신조펀드 3호 동아탱커 ‘DAT머큐리’호 명명식 2 캠코, 1668억원 규모 압류재산 공매…부산41건 포함 3 BIFF와 연계된 ACFM, 3년만에 대면 개최… 콘텐츠 국제거래 큰 장 역할 4 부경대생들, 스포츠관광 대학생 아이디어 ‘우수상’ 5 "제2센텀 산단 등 14조6700억 투자" 6 부산관광공사-서울관광재단 상호협력 MOU 체결 7 “건전한 한국자본시장 위해 불공정거래 제재수단 강화 필요” 8 예탁결제원 “휴면 주식 및 배당금의 주인을 찾습니다” 포토뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 최신뉴스 불법자동차·이륜차 근절…부산시, 집중 단속 실시 2022 청년작당소 아트시네마전 오는 25일까지 개최 ‘나혼산’ 차서원, 미담장학회 통해 교육 멘토 활동 해와 관광객도 ‘동백전’으로…관광객 전용 동백전 출시 부산 마이스 산업 활성화 유공자 표창 신청 받아 하단영역 하단메뉴 회사소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 고충처리 매체정보 부산광역시 수영구 광남로 42, 국보빌딩 11층 대표전화 : 051-996-2400 팩스 : 051-996-2408 청소년보호책임자 : 이태희 법인명 : 부산제일경제 제호 : 부산제일경제 등록번호 : 부산 아 00219 등록일 : 2015-02-06 발행일 : 2015-02-06 발행·편집인 : 이태희 Copyright © 2022 부산제일경제. All rights reserved. mail to agency@busaneconomy.com 위로 전체메뉴 전체기사 카드뉴스 전체 이야기 오늘 통계로 본 부산 뉴스 전체 경제 산업 정치 사회 기업일반 유통 기업탐방 릴레이인터뷰 건강/의료 연예 스포츠 인사 라이프 자동생성기사 금융/증권 전체 금융동향 머니플러스 증권일반 종목/투자전략 빅데이터 인포스탁데일리 부동산 전체 정책 분양/건설 해양수산 전체 일반 수산물 항만 해운 교육 전체 교육일반 초/중/고/학원 대학 문화 전체 문화일반 전시/공연 마을활동가 기획/연재 전체 칼럼/기고 HOT 스타트업 연재 취재수첩 디지털이야기 사람을 만나다 Zoom in ASEAN 미래경영포럼 해외기획취재 社告/축사 중국뉴스 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광건설현장 대상 체불임금 해소 합동 지도점검 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 관광건설현장 대상 체불임금 해소 합동 지도점검 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 관광건설현장 대상 체불임금 해소 합동 지도점검 기자명 고병수 기자 입력 2018.11.08 13:43 수정 2018.11.08 13:48 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 7일 애월 스마트테마파크 건설현장을 대상으로 체불이 우려됨에 따라 건설현장 유관기관 합동 지도·점검을 긴급 실시했다고 밝혔다.이번에 실시한 체불 우려 건설현장 합동 지도·점검은 지난 10월 28일 오전 10시 도청 당직실로 해당 신축 공사장 건설노동자가 체불임금 발생(약 50명, 2억원 ) 민원이 신청됨에 따라 이뤄졌다.올해 6월 19일에 협약한 '체불임금 해소대책 추진 업무협력 협약'에 따라 유관기관 및 관계부서 공무원을 긴급히 소집해 시행하게 됐다는 것. 체불임금 및 건설공사 유관 부서인 道 경제정책과(노동정책팀장 외 1명), 투자유치과, 건설과(건설진흥팀장 외 1명)와 광주지방고용노동청 제주근로개선지도센터(근로감독관 1명) 등 6명이 참여했다.체불 우려 건설현장 합동 지도·점검에는 건설노동자 체불임금 발생 실태 및 하도급 관련 부조리에 대해 중점 지도·점검을 실시했다. 점검결과 해당 사업장은 내년 1월 준공 예정으로 체불임금은 노동자와 약속한 날 자에 지급하도록 지도했고 이후 추적 관리를 통해 지급여부를 확인할 계획이다.또한 앞으로도 체불임금 유관기관이 함께하는 체불 우려 건설현장 합동 지도·점검을 통해 제주도내 체불임금 예방 및 해소를 추진해 '노동자가 살기 좋은 행복도시 제주'를 조성해나갈 계획이다.최명동 경제정책과장은 "이번 체불 우려 건설현장 합동 지도·점검을 시작으로 '체불임금 해소대책 추진 업무협력 협약' 유관기관과의 긴밀한 공조체계를 구축 및 지속 유지해 체불임금 예방 및 해소에 적극 노력하겠다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>김영진 제주도관광협회장, 日 오키나와 방문 교류 협력 추진 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 김영진 제주도관광협회장, 日 오키나와 방문 교류 협력 추진 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 사람과 사람 동정 김영진 제주도관광협회장, 日 오키나와 방문 교류 협력 추진 문유미 기자 승인 2018.11.20 16:06 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 김영진 제주특별자치도관광협회장은 오는 22일부터 25일까지 일본 오키나와를 방문해 오키나와관광컨벤션뷰로(회장 타이라 쵸우케이)와 류큐지역 관광객 유치 활성화를 위한 협력 비즈니스 마케팅을 추진한다.문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도, 2018년 하반기 우수관광사업체 공모 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:32 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도개발공사 상임감사에 여론조사 전문가 양진철 교수 임명 ‘보이스피싱 의심’ 1800만원 피해 막은 제주은행원 경찰 감사장 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도, 2018년 하반기 우수관광사업체 공모 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도, 2018년 하반기 우수관광사업체 공모 기자명 이승록 기자					(leerevol@naver.com) 입력 2018.11.05 15:01 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도가 2018년 하반기 우수관광사업체를 공모한다. 제주도는 관광사업체의 품질향상과 서비스 개선 등 우수한 관광사업체의 경쟁력을 강화시켜 관광객들의 만족도를 향상시킬 우수관광사업체를 12일까지 모집한다고 5일 밝혔다.공모대상은 영업신고(리모델링) 후 1년 이상 경과한 제주도에 본점을 둔 사업체로 관광지, 교통, 숙박업, 여행업, 음식업 5개 분야를 대상으로 하며, 이전에 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청해 재지정을 받아야 한다.우수관광사업체 선정은 공모에 신청한 관광사업체의 신청서류 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거치게 되며, 지정 기간은 2년(2019년 1월1일~ 2020년 12월31일)이다.주요 평가 항목으로는 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등 분야별 평가표에 의해 종합적으로 평가하며, 종합점수가 기준 점수(90점) 충족된 경우 평정위원회 심의를 거쳐 최종 선정한다.우수관광사업체로 지정되면 우수관광사업체 지정서 및 인증패가 수여되고, 도 관광정보시스템 및 유관기관 홈페이지 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어지며, 홍보지원금 70만원이 지급된다.또한 우수관광사업체 고객만족도 조사 등 전문기관의 중간  점검을 통해 불편사항과 불만족 서비스 등에 대한 업체 컨설팅 및 현장교육 등의 지원도 받게 된다.우수관광사업체로 지정을 희망하는 사업체는 10월 29일부터 제주도 홈페이지(www.jeju.go.kr)  '입법/공고/고시'게시판에서 우수관광사업체 지정신청서 등을 다운로드 받아 제주도관광협회(☎064-741-8744)에 신청하면 되고, 자세한 공모 내용은 제주도 홈페이지에서 확인할 수 있다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>2018 제주도 하반기 우수관광사업체 지정 공모 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 2018 제주도 하반기 우수관광사업체 지정 공모 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 2018 제주도 하반기 우수관광사업체 지정 공모 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2018.11.05 11:17 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 오는 12일까지 관광사업체의 품질향상과 서비스 개선 등 우수한 관광사업체의 경쟁력을 강화시켜 관광객들의 만족도를 향상시킬 우수관광사업체를 모집한다.공모대상은 영업신고(리모델링) 후 1년 이상 경과한 제주특별자치도에 본점을 둔 사업체로 관광지, 교통, 숙박업, 여행업, 음식업 5개 분야이며, 이전에 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청해 재지정을 받아야 한다.우수관광사업체 선정은 공모에 신청한 관광사업체의 신청서류 등 자격요건심사 후, 전문가들로 구성된 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거치게 되며, 지정 기간은 내년 1월1일부터 2020년12월31일까지 2년이다.주요 평가 항목으로는 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등 분야별 평가표에 의해 종합적으로 평가하며, 종합점수가 기준 점수(90점) 충족된 경우 평정위원회 심의를 거쳐 최종 선정한다.우수관광사업체로 지정되면 우수관광사업체 지정서 및 인증패가 수여되고, 제주도 관광정보시스템 및 유관기관 홈페이지 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어지며, 홍보지원금 70만원이 지급된다.또 우수관광사업체 고객만족도 조사 등 전문기관의 중간 점검을 통해 불편사항과 불만족 서비스 등에 대한 업체 컨설팅 및 현장교육 등의 지원도 받게 된다.우수관광사업체로 지정을 희망하는 사업체는 10월 29일부터 제주특별자치도 홈페이지(www.jeju.go.kr) '입법.공고.고시"' 게시판에서 우수관광사업체 지정신청서 등을 다운로드 받아 제주특별자치도 관광협회(064-741-8744)에 신청하면 되고, 자세한 공모 내용은 제주특별자치도 홈페이지에서 확인할 수 있다.한편 제주도 우수관광사업체는 관광지 41곳, 교통 5곳, 숙박 26곳, 여행 9곳, 음식 18곳 총 99곳이 지정돼 있다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 2018년 하반기 우수관광사업체 지정 공모 &lt; 정치종합 &lt; 정치 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 정치 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 본문영역 이전 기사보기 다음 기사보기 제주도, 2018년 하반기 우수관광사업체 지정 공모 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 정치 정치종합 제주도, 2018년 하반기 우수관광사업체 지정 공모 기자명 양경익 기자 입력 2018.11.05 11:18 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도는 관광사업체의 경쟁력 강화와 관광객들의 만족도 향상을 위해 우수관광사업체를 오는 12일까지 모집한다고 5일 밝혔다.공모대상은 영업신고 후 1년 이상 경과하고 제주도에 본점을 둔 사업체로 관광지, 교통, 숙박업, 여행업, 음식업 등 5개 분야다.이전 우수관광사업체로 지정돼 2년이 도래한 사업체는 신청을 통해 재지정을 받아야 한다.이에 따라 도는 공모에 신청한 관광사업체의 신청서류 등 자격요건 심사 후 평가위원들의 현장평가와 우수관광사업체 평정위원회의 심의를 거쳐 우수관광사업체를 선정할 예정이다.주요 평가 항목으로는 사업체의 시설 및 환경, 서비스, 요금, 안전·위생관리, 지역 사회 공헌도 등이며 종합점수가 기준 점수(90점)를 충족한 경우 평정위원회 심의를 거쳐 최종 선정한다.우수관광사업체로 지정되면 우수관광사업체 지정서 및 인증패가 수여되며 도 관광정보시스템 및 유관기관 홈페이지 등 SNS, 리플릿, 지도 등 홍보물을 통한 홍보 인센티브 혜택이 주어진다.또한 홍보 지원금 70만원도 지급되며 고객 불편사항과 불만족 서비스 등에 대한 업체 컨설팅 및 현장교육 등의 지원도 받게 된다.우수관광사업체 지정을 희망하는 사업체는 제주도 홈페이지(www.jeju.go.kr) 입법·공고·고시 게시판에서 지정신청서 등을 내려 받아 제주도 관광협회(064-741-8744)로 신청하면 된다.자세한 사항은 제주도 홈페이지에서 확인할 수 있다. 양경익 기자 양경익 기자 yki@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도의회 '과잉관광' 베네치아와 손 잡는다 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도의회 '과잉관광' 베네치아와 손 잡는다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 정치/행정 도의회 제주도의회 '과잉관광' 베네치아와 손 잡는다 홍수영 기자 승인 2018.11.11 16:29 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도의회가 이탈리아 베네치아와 ‘오버투어리즘’으로 인한 문제점 해결방안 모색 필요성에 뜻을 모으고 우호협력을 체결하기로 했다. 제주도의회는 지난 9일 이탈리아 베네치아·무라노·부라노 시의회(베네치아 시의회)에서 김태석 의장과 지오바니 안드레아 마티니(Giovanni Andrea Martini) 베네치아 시의회 의장 등이 참석한 가운데 내년 우호협력 체결 준비를 위한 양해각서를 교환했다고 11일 밝혔다. 이 자리에서 김태석 의장은 “관광산업이 중심이 되는 양 지역의 관광객과 지역주민이 공존할 수 있는 과제를 해결하기 위해 함께 노력하자”고 제안했다. 이에 지오바니 의장도 “오버투어리즘으로 인해 베네치아를 찾는 관광객과 지역주민 모두 불편을 겪고 있다”며 제주도의회 제안에 동참 의사를 밝혔다. 이어 김 의장은 베네치아 지역주민과의 간담회에서 오버투어리즘 문제에 대한 공감대를 형성하고 “관광객 수용력에 대한 공동연구가 필요하다”고 말했다. 홍수영 기자  gwin1@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 홍수영 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도·제주관광공사 ‘섬 관광정책’ 포럼 특별기획전 개최 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도·제주관광공사 ‘섬 관광정책’ 포럼 특별기획전 개최 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도·제주관광공사 ‘섬 관광정책’ 포럼 특별기획전 개최 문유미 기자 승인 2018.11.07 19:12 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 오는 12~21일 한국관광공사 서울센터서 제주도와 제주관광공사가 섬 관광정책(ITOP) 포럼 특별기획전을 개최한다. 제주특별자치도와 제주관광공사(사장 박홍배)는 오는 12일부터 21일까지 한국관광공사 서울센터에서 ‘세상에서 가장 아름다운 섬 이야기’를 주제로 섬 관광정책(ITOP) 포럼 특별기획전을 개최한다고 7일 밝혔다. 이번 전시회에는 제주·오키나와·스리랑카 남부주·잔지바르·푸켓·페낭 등 6개 섬 지역이 참여해 도시 간 문화·예술·자연을 잇는 사진과 물품 등을 전시할 예정이다. 이와 함께 각 지역 식문화 체험을 위한 쿠킹클래스와 문화행사 등 다채로운 프로그램이 마련된다. 전시 개회식은 오는 12일 오후 4시에 열리며, 지역 문화 공연과 전시 도슨트 해설, 제주메밀 다과 시식 등이 진행될 예정이다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>‘대구 김광석 거리부터 제주도 우도까지’…한국관광공사가 조선족에게 추천하는 명소는? - 이정범 기자 - 톱스타뉴스 × 전체기사 엔터 전체 가요 방송 영화 셀럽 문화/예술 사회 전체 사건사고 충격사건 사건일지 주요일정 코로나19 환경 국제 전체 해외연예 분쟁 해외토픽 코인 증시 바이오 정치 전체 여당근황 야당근황 국방 북한 외교 연예가소식 전체 가요 방송 영화 경제 전체 기업 증시-코인-복권 부동산 코인 산업 전체 증시 바이오 문화 전체 스타SNS근황 방송정보 생활정보 가상화폐 정치인SNS 커뮤니티 바이오-헬스 이슈영상 라이프 전체 맛집-레시피 뷰티 스포츠 과학/IT 패션 전체 서울패션위크 인사/동정/부고 전체 인사 부고 동정 포토DB 뉴스 머니 전체 퀴즈 보도자료 전체 연예 경제 사회 스포츠 뉴시스 연합뉴스 전체 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 로고 UPDATED. 2022-10-11 12:47 (화) 인터넷신문위원회 윤리강령을 준수합니다 8월 27일 독자추천종합순위 1위 이찬원, 2위 영탁에 3,502표 앞서 가요 방송 영화 셀럽 인터뷰 현장리포트 무비포커스 기획 HD포토 HD동영상 F레터 이슈 리부트 이슈종합 공식입장 로그인 검색버튼 기사검색 검색 1[최고의앨범] 2일 하루 득표량 순위는 영탁(9.0%)·장민호(6.9%)·이승윤·김기태·송가인·양준일·김희재·이찬원·박창근·박서진 순 2[최고의앨범] 3일 하루 득표량 순위는 영탁(6.6%)·장민호(4.9%)·이승윤·송가인·김기태·양준일·김희재·이찬원·라포엠·박서진 순 3[최고의앨범] 4일 하루 득표량 순위는 영탁(4.8%)·장민호(3.7%)·이승윤·송가인·김기태·김희재·양준일·이찬원·박서진·라포엠 순 4[브랜드파워] 3일 하루 득표량 순위는 영탁(27.3%)·김기태(23.0%)·이승윤·장민호·송가인·양준일·진해성·김희재·이찬원·박서진 순 5'울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 6[브랜드파워] 4일 하루 득표량 순위는 영탁(25.4%)·김기태(23.2%)·이승윤·장민호·송가인·김희재·진해성·이찬원·박서진·양준일 순 7[댓글 순위] 영탁 200회째 1위, 김기태·이찬원·강혜연·방탄소년단 진 TOP5…진해성·김희재·방탄소년단 지민·김다현·방탄소년단 뷔 뒤이어 8[최고의앨범] 6일 하루 득표량 순위는 영탁(3.2%)·장민호(2.1%)·이승윤·송가인·김기태·양준일·김희재·박서진·이찬원·박창근 순 9[최고의앨범] 5일 하루 득표량 순위는 영탁(3.9%)·장민호(2.6%)·이승윤·송가인·김기태·김희재·이찬원·양준일·박서진·박창근 순 10[브랜드파워] 5일 하루 득표량 순위는 영탁(26.3%)·김기태(24.0%)·이승윤·장민호·송가인·김희재·이찬원·진해성·박서진·박창근 순 가요 방송 영화 셀럽 현장리포트 스타포커스 무비포커스 인터뷰 HD포토 HD동영상 시상식 쇼케이스 이슈종합 공식입장 단독취재 기획 이슈 리부트 스타화보 스타출근길 엔터테인먼트 스포츠 전체기사 정치 사회 경제 국제 콘텐츠 구매 문의 기사제보 페이스북 트위터 네이버포스트 유튜브 네이버TV 인스타그램 모바일웹 닫기 [이슈종합] '이적설→왕따설' 이달의 소녀 츄, '금쪽상담소' 출연 이유가…충격 자해 고백 "멤버 단톡방서 제외?"…이달의 소녀 츄, '소속사 갈등설' 재수면 이달의 소녀 츄, '스테이지 업' 공연 MC 발탁 [이슈종합] 아이브 VS 경북대, 축제 취소에 팽팽한 입장 차…국적 논란 번지나 스타쉽, 아이브(IVE) 공연 취소 경북대 측 주장에 추가 입장…“계약금 전달된 바 없어” (전문) '출장 십오야', 스타쉽 협업 성사…아이브→이동욱 출연할까 ‘대구 김광석 거리부터 제주도 우도까지’…한국관광공사가 조선족에게 추천하는 명소는? 이정범 기자 승인 2018.11.05 00:06 댓글 제보하기 반론요청 이 기사를 공유합니다 × 한국관광공사 선양지사는 과거 현지매체인 요녕신문과 공동으로 대한민국의 자연풍경과 인문적 매력을 조선족들에게 널리 알리기 위해 ‘조선족 관광객이 꼭 가봐야 할 한국 지방관광 10선(選)’ 프로모션을 펼쳤다. 관광공사 선양지사는 각계 조선족 전문가와 함께 지방관광 10선으로 부산 감천문화마을, 대구 근대골목 및 대구 김광석 거리, 강원도 설악산, 강릉 커피거리·경포대, 경기도 파주 비무장지대(DMZ)를 선정했다. 청북도 단양팔경, 경상남도 진주성, 전라북도 전주한옥마을, 전라남도 여수 오동도 및 엑스포해양공원, 제주도 우도가 지방관광 10선에 포함됐다. 조선족 관광객이 꼭 가봐야 할 한국 지방관광 10선 / 한국관광공사 선양지사는 이들 10개 지방 관광지의 특성과 위치, 연락처 등을 소개한 관광수첩을 5천부 만들어 중국 동북3성(랴오닝·지린·헤이룽장성)의 조선족 사회를 중심으로 배포했다. 김용재 관광공사 선양지사장은 “지방관광과 테마관광을 활성화하는 추세에서 한국문화·역사를 풍부히 담은 지방 대표 관광지를 선정해 널리 알리고 휴가, 가족방문 등의 기회를 이용해 조선족들이 국내 곳곳을 방문하는 계기를 제공코자 한다”고 말했다.이정범 기자 reporter@topstarnews.co.kr &amp;lt뉴스를 무단으로 유튜브 영상을 제작하는 것을 금지합니다. 발견 즉시 민형사상 제소합니다.&amp;gt Tag #관광공사 페이스북 트위터 카카오스토리 네이버밴드 네이버블로그 카카오톡 URL복사 이 기사를 공유합니다 × 이 기사를 추천합니다. 0 모두에게 알리고 싶은 뉴스라면 ? ‘이 기사를 추천합니다’ 버튼을 눌러주세요.추천을 많이 받은 기사는 ‘독자 추천 뉴스’에 노출됩니다. 전체 기사 보기 기사를 추천하면 투표권을 받을 수 있습니다. If you recommend an article, you can get a voting ticket. PC페이지에서 추천하면 투표권을 2개 지급합니다. If you recommend an article on the PC page, you will receive two voting tickets. 모바일 모드로 보기 Go to the Mobile page. &amp;lt저작권자 © 톱스타뉴스 무단전재 및 재배포 금지&amp;gt 2018/11/05 00:06 송고&amp;nbsp&amp;nbsp|&amp;nbsp&amp;nbspreporter@topstarnews.co.kr 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 권한이 없습니다. 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 [F레터] 팬들의 사연을 보도합니다. 스타서베이 공지 보러 가기 [공지]독자추천·댓글순위·리트윗순위 독자추천뉴스 ㅣ 댓글많은뉴스 ㅣ 트위터 경력기자 ㅣ 신입기자 ㅣ 신문사소개 윤리강령 보도/편집 규약 불편신고 청소년보호정책 이메일무단수집거부 기사제보 광고문의 콘텐츠제휴문의 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. 취재본부 : 02-3443-4662, 제보메일 reporter@topstarnews.co.kr 신문등록번호 : 서울 아 01403, 신문등록일 : 2010-11-09 발행소 : 서울특별시 강남구 학동로30길 14 이세빌딩 2층 추천기사 ‘강다니엘부터 라이관린까지’…워너원, ‘2018 제주 한류페스티벌’ 빛내 ‘알토란’ 김하진 요리연구가, 오독한 밥도둑 ‘무말랭이무침-묵말랭이볶음’ 레시피 공개 ‘SBS 스페셜’ 기억법 전문가 고혜정·정계원·조신영은 누구? “기억력은 ‘내’가 아니라 ‘뇌’가!” ‘알토란’ 임성근 조리기능장, ‘찜닭’ 30분 완성 ‘맛집보다 더 맛있는’ 레시피 공개 ‘SBS 스페셜’ 기억법의 비밀 편, 유재환이 살찐 이유는 건망증 때문? “먹은 거 까먹고 또 먹어” 해외토픽 러시아와 전쟁중인 우크라이나 키이우 상공에 UFO 출현 인도 여성, 15개월 아이 구하려 맨손으로 호랑이와 사투 미국 미술전서 인공지능이 그린 그림이 1위…"이것도 예술인가" 논란 NASA 블랙홀 소리 공개…'지옥의 소리' '우주 호러' 독일서 여성 2명, 총리 앞 '상의 탈의' 시위…"러시아 가스 금수하라. 푸틴에게 돈을 주지 마라" 2배로 커진 칠레 미스터리 싱크홀…지름 50m 깊이 200m 미국 구치소에서 "男죄수들 女구치소 습격·집단 성폭행…1천달러에 교도관 매수" 미국 메가밀리언 복권 29회 동안 1등 없어, 다음 1등은 1조3천억원…복권 구매 줄이어 중국, 생방송 인플루언서 불붙여 살해한 전 남편 사형 집행 "빅토리아 시크릿과 성범죄자 엡스타인 추악한 연결 고리나와" F레터 F레터 공지 [F레터] 진해성 가수의 콘서트 직관후기 ‘내눈에 너만보여’ [F레터] 주접은 행복…김기태 가수에게 우리들의 노래를 들려주다 [F레터] 오늘은 특별한 날…내 삶에 스며든 별을 만나러 가는 날 ‘진해성’이 있다 [F레터] 진해성 가수와 함께하는 트롯전국체전 성남콘서트 [F레터] 진해성의 판타지 만약에…귀한 찰라, 귀한 경험을 순간 완전무결한 환상의 결과이고 진해성의 판타지다 독자 추천 뉴스 1 1010 [최고의앨범] 2일 하루 득표량 순위는 영탁(9.0%)·장민호(6.9%)·이승윤·김기태·송가인·양준일·김희재·이찬원·박창근·박서진 순 2 992 [최고의앨범] 3일 하루 득표량 순위는 영탁(6.6%)·장민호(4.9%)·이승윤·송가인·김기태·양준일·김희재·이찬원·라포엠·박서진 순 3 955 [최고의앨범] 4일 하루 득표량 순위는 영탁(4.8%)·장민호(3.7%)·이승윤·송가인·김기태·김희재·양준일·이찬원·박서진·라포엠 순 4 933 [브랜드파워] 3일 하루 득표량 순위는 영탁(27.3%)·김기태(23.0%)·이승윤·장민호·송가인·양준일·진해성·김희재·이찬원·박서진 순 5 884 '울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 댓글많은뉴스 1 468 '울음바다' 영탁을 울린 '부산 콘서트' …"만화 같은 현실은 너의 노력이 빚어낸 선물이야" 2 251 영탁, 신사답게 원더케이 뮤직비디오 200만 뷰…"말이 필요 없는 최고의 퍼포먼스 가창력" 3 240 '박지의 귀환' 영탁, 부산 콘서트에서 '영혼의단짝' 광민이 형이 밝힌 영탁이의 '장점과 담점' 4 174 '공연 역사의 새로운 역사를 쓴 위대한 탁쇼' 영탁, 서울 앙코르 콘서트 개최 확정…초광속 매진 행렬에 '티켓 대란'예상 5 165 '또 우승' 김기태, "하고 싶은 이야기가 너무 많아" 팬들에게 꺼낸 진심 Instagram에서 이 게시물 보기 톱스타뉴스(@topstarnews)님의 공유 게시물 이슈 1 신화 신혜성, 음주운전 혐의에…과거 전진 ‘면허 100일 정지’ 재조명 2 [TOP이슈] 신화 신혜성, 도난차량서 음주 측정 거부→체포…음주운전만 두 번째 3 [TOP이슈] "안타깝고 속상해"…이채연 측, 데뷔 앨범 디자인 유사성 논란 해명 4 남우현도 울림 떠난다…인피니트 멤버 전원 계약 종료 5 “코로나 후유증으로 컨디션 난조”…BAE173 남도현, 활동 중단 6 [TOP이슈] 영화는 2편…‘7년째 불륜’ 홍상수-김민희, 부국제 불참 7 “미련 못 버려”…아이브 VS 경북대 축제 갈등, 섭외 담당 에이전시 공식 사과 8 “구두 확답-출연료 송금 완료” 경북대 측, 대동제 아이브 공연 취소→스타쉽 주장에 반박 9 [TOP이슈] '친부 폭행' 박수홍, 와이프와 안정 중…'미우새' 댓글창 비난 폭주 10 "흉기로 XX"…박수홍, 친부에게 폭행 당해→병원으로 긴급 후송 11 [TOP이슈] "호주서 골프하고 싶다고"…박연수, 딸 송지아 음해에 분노→아들 송지욱 반응 언급 12 "와이프-엄마도 몰랐나" 돈스파이크, 과거 대마로 징역형 '대중 기만 논란' 13 [TOP이슈] ‘마약 혐의’ 돈스파이크, 와이프→여동생-어머니까지…가족 공개 어쩌나 14 [TOP이슈] '마약 투약 혐의' 이상보, 무혐의 처분…"처방내역 분석" 15 배우 박민영, 강씨와 결별→친언니 사외이사 사임 발표…‘이미지 타격’ 불가피 이슈영상 1 코로나 봉쇄로 외출 못하게 대문까지 용접한 중국, 한달 지나서 공개된 용접 영상 집가다 방역 요원에게 봉변까지 이슈종합 [이슈종합] '이적설→왕따설' 이달의 소녀 츄, '금쪽상담소' 출연 이유가…충격 자해 고백 [이슈종합] 아이브 VS 경북대, 축제 취소에 팽팽한 입장 차…국적 논란 번지나 '필로폰 투약' 돈스파이크, 오늘(5일) 검찰 송치…母 가슴에 대못 박아 [이슈종합] [이슈종합] 검찰, 박수홍 생명보험 조사 착수…납입액만 14억 수준 [이슈종합] '악에 바쳐' 박유천, 복귀 시도 무산…가처분취소 신청 기각 [이슈종합] '연습생 출신' 한서희, 3번째 마약 혐의도 모르쇠…선고 당일 항소 [이슈종합] ‘음주운전’ 배우 곽도원, 차기작 빨간불…‘소방관’ ‘빌런즈’ 어쩌나 [이슈종합] '프듀101' 출신 정중지 여동생, 고인 인스타 계정 공개…생전 모습 눈길 [이슈종합] '이광수♥' 이선빈, 前소속사와 전속계약 분쟁 '5억원 소송' 승소 [이슈종합] 유승준, 비자 재소송 2심 첫 재판…法 "재외동포인가?" 지적 기획 [TOP초점] 방탄소년단(BTS) 부산 콘서트, 10만명 운집 괜찮을까 [TOP초점] 먹방으로 흥한 성훈, '줄 서는 식당' 매너 논란으로 '뭇매' [TOP리뷰] 힐링 드라마라던 '우영우', 길 잃은 자폐 설정-'갑분' 러브라인에 발목 [내돈내산⑦] "기자도 사봤다" 영탁 17년 만의 첫 번째 단독 콘서트! 'TAK SHOW' 네번째 이야기 ″쏘스윗 실버보이스″ 방탄소년단 진, '믿고 듣는 실버보이스' 베니 블랑코•스눕독 협업곡 '배드 디시전스' 공개 중요기사 [종합] ‘더 플레이어 케이팝 퀘스트-최종회’ 펠라즈 2기, 플레이어 더보이즈 스릴 라이드 ‘승’…데뷔곡 ‘도깨비집’ 최초 공개 [종합] '구해줘! 홈즈' 소유진, 김호영, 2PM 닉쿤 '무승부'…대형정원부터 테라스 주택까지, 7억원대 경기남부 매물 총출동 [종합] '작은 아씨들' 최종화 김고은, 300억의 주인공 됐다…추자현 "엄지원이 살인했다" 폭로⟶빌런 엄지원 사망 [종합] '뭉쳐야찬다2' 위례 FC를 상대로 완벽한 승리, 류은규 MOM 등극…이형택, '폭풍 성장'에 감탄 [종합] '도시어부4' 이태곤, '감성돔' 1인자 등극…구본승 "꼴찌하면 커피차, 사무장하겠다" 공약 충격사건 등굣길 초등생 집으로 끌고가 성폭행한 80대, 징역 20년 구형…"사전에 비아그라 준비" 30대 남성 인천공항서 중요부위 자해…승객들 큰 충격 미성년자 꾀어 성착취물 찍게 한 초등교사, 항소심 '징역 18년' ↑…피해자 120여 명 여친 목졸라 살해하고 시신 옆서 영화보며 식사하고 이틀 지낸 20대 징역 30년 미성년 처조카와 처남댁 강제 추행하고 성폭행한 40대 공무원, 항소심도 징역 10년 노예처럼 산 유흥업소 감금·폭행 여종업원들, 속옷만 입은 채 쇠사슬과 개 목줄 몸에 감고 꼼짝 못해 폭행 신고했다고 사실혼 아내 입에 소변 본 남편, 보복상해·보복협박·보복폭행 혐의로 징역 3년 제주서 초등생 어린 조카 상대 10년 동안 성폭행 50대 징역 7년 7년간 미성년 의붓딸 21차례 성폭행한 40대 징역 20년…첫 범행 당시 의붓딸은 9세 "엄마한테 말하면 죽어" 의붓딸 7년간 상습 성폭행, 징역 20년 페이스북 트위터 네이버 인스타그램 카카오스토리 유튜브 웨이보 취재본부 : 02-3443-4662 매체소개 광고안내 콘텐츠 구매 문의 기사제보 톱스타뉴스의 모든 콘텐츠(영상,기사,사진)는 저작권법의 보호를 받은바, 무단 전재, 복사, 배포 등을 금합니다. (주)소셜미디어네트웍스 신문등록번호 : 서울 아 01403 신문등록일 : 2010-11-09 제호 : 톱스타뉴스 발행인 : 장영권 편집인 : 김명수 발행일자 : 2010-09-06 발행소 : 서울특별시 강남구 학동로30길 14 (두원건설빌딩) 2층 (우) 06105 주사무소 또는 발행소의 전화번호 : 02-3443-4662 팩스 : 02-525-4661 청소년보호책임자 : 최규석 [열린보도원칙] “당 매체는 독자와 취재원 등 뉴스이용자의 권리보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. reporter@topstarnews.co.kr, *제보하기 *반론요청 윤리강령 보도/편집 규약 청소년보호정책 개인정보취급방침 이메일무단수집거부 독자투고 고충처리/불편신고 Copyright © 2010 - 2022 톱스타뉴스 (TOPSTARNEWS.NET) 제휴통신사</t>
   </si>
 </sst>
 </file>
@@ -437,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +552,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +563,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -481,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,7 +585,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,7 +596,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,7 +629,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,7 +640,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,7 +651,224 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
         <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
